--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.825006724566151</v>
+        <v>3.825006724566094</v>
       </c>
       <c r="C2">
-        <v>1.083855422454207</v>
+        <v>1.08385542245469</v>
       </c>
       <c r="D2">
-        <v>0.383431880433136</v>
+        <v>0.3834318804331645</v>
       </c>
       <c r="E2">
-        <v>0.6005384891450944</v>
+        <v>0.600538489145066</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9.044839761332952</v>
+        <v>9.044839761332895</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2172064448676636</v>
+        <v>0.2172064448676565</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.241235338904005</v>
+        <v>3.241235338904175</v>
       </c>
       <c r="C3">
-        <v>0.9127361655369555</v>
+        <v>0.9127361655366144</v>
       </c>
       <c r="D3">
-        <v>0.3275666320439399</v>
+        <v>0.3275666320437836</v>
       </c>
       <c r="E3">
-        <v>0.50950365630829</v>
+        <v>0.5095036563083184</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.816625153492652</v>
+        <v>7.816625153492538</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1838460918184417</v>
+        <v>0.1838460918184524</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.898391843314243</v>
+        <v>2.8983918433143</v>
       </c>
       <c r="C4">
-        <v>0.8126583905958</v>
+        <v>0.8126583905958285</v>
       </c>
       <c r="D4">
         <v>0.2946893802683377</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1642736544234289</v>
+        <v>0.1642736544233827</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.761905918613877</v>
+        <v>2.761905918614048</v>
       </c>
       <c r="C5">
-        <v>0.7728965515421464</v>
+        <v>0.7728965515422317</v>
       </c>
       <c r="D5">
-        <v>0.2815870908624589</v>
+        <v>0.2815870908628</v>
       </c>
       <c r="E5">
-        <v>0.434749938695461</v>
+        <v>0.4347499386955391</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.802446761914837</v>
+        <v>6.802446761914666</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1564842778439797</v>
+        <v>0.1564842778439157</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.739419242382269</v>
+        <v>2.739419242382553</v>
       </c>
       <c r="C6">
-        <v>0.7663497040322795</v>
+        <v>0.7663497040328195</v>
       </c>
       <c r="D6">
-        <v>0.2794276752382387</v>
+        <v>0.2794276752381393</v>
       </c>
       <c r="E6">
         <v>0.4312423305687432</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.754730696283644</v>
+        <v>6.754730696283474</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1552010212618136</v>
+        <v>0.1552010212617851</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>2.896538919172201</v>
       </c>
       <c r="C7">
-        <v>0.812118295277088</v>
+        <v>0.8121182952761785</v>
       </c>
       <c r="D7">
-        <v>0.2945115571129122</v>
+        <v>0.2945115571126422</v>
       </c>
       <c r="E7">
-        <v>0.4557490814189151</v>
+        <v>0.4557490814188299</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1641678996201179</v>
+        <v>0.1641678996200895</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>3.620026007060176</v>
       </c>
       <c r="C8">
-        <v>1.0236626304401</v>
+        <v>1.023662630439588</v>
       </c>
       <c r="D8">
-        <v>0.3638326061824415</v>
+        <v>0.363832606182811</v>
       </c>
       <c r="E8">
-        <v>0.5685715265995412</v>
+        <v>0.5685715265996194</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.614391950854156</v>
+        <v>8.614391950854355</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2054865770835121</v>
+        <v>0.2054865770834731</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202362017755775</v>
+        <v>5.202362017756229</v>
       </c>
       <c r="C9">
-        <v>1.491612344347004</v>
+        <v>1.491612344347118</v>
       </c>
       <c r="D9">
-        <v>0.5146439054038012</v>
+        <v>0.5146439054038865</v>
       </c>
       <c r="E9">
-        <v>0.8155039009131428</v>
+        <v>0.8155039009131144</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.91615201622787</v>
+        <v>11.91615201622778</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2961898300208858</v>
+        <v>0.2961898300208645</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.539941181839652</v>
+        <v>6.539941181839822</v>
       </c>
       <c r="C10">
-        <v>1.89360754496704</v>
+        <v>1.893607544967779</v>
       </c>
       <c r="D10">
-        <v>0.641225666734158</v>
+        <v>0.6412256667340159</v>
       </c>
       <c r="E10">
-        <v>1.02474561258461</v>
+        <v>1.024745612584596</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.67170161534892</v>
+        <v>14.67170161534926</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3733998063908288</v>
+        <v>0.3733998063908004</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.212348725722052</v>
+        <v>7.212348725721768</v>
       </c>
       <c r="C11">
-        <v>2.098116453772036</v>
+        <v>2.098116453772093</v>
       </c>
       <c r="D11">
-        <v>0.7045303546111654</v>
+        <v>0.7045303546112507</v>
       </c>
       <c r="E11">
-        <v>1.13018581357764</v>
+        <v>1.130185813577654</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>16.04504083398012</v>
+        <v>16.04504083398001</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4124463582575331</v>
+        <v>0.4124463582575899</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.479482649003501</v>
+        <v>7.479482649003558</v>
       </c>
       <c r="C12">
-        <v>2.179834568291994</v>
+        <v>2.179834568291369</v>
       </c>
       <c r="D12">
-        <v>0.7296170169907725</v>
+        <v>0.729617016990602</v>
       </c>
       <c r="E12">
-        <v>1.172130475855141</v>
+        <v>1.172130475855184</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.58842701694033</v>
+        <v>16.58842701694067</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4280071177200924</v>
+        <v>0.4280071177201066</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.421326006593858</v>
+        <v>7.421326006594029</v>
       </c>
       <c r="C13">
-        <v>2.162020872825394</v>
+        <v>2.162020872825337</v>
       </c>
       <c r="D13">
-        <v>0.7241585903550458</v>
+        <v>0.7241585903547048</v>
       </c>
       <c r="E13">
-        <v>1.162996034699802</v>
+        <v>1.162996034699759</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.47023626900483</v>
+        <v>16.47023626900477</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.424617009628605</v>
+        <v>0.4246170096286122</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.234051281756138</v>
+        <v>7.234051281755626</v>
       </c>
       <c r="C14">
         <v>2.104745293020414</v>
       </c>
       <c r="D14">
-        <v>0.7065698012739858</v>
+        <v>0.7065698012743837</v>
       </c>
       <c r="E14">
-        <v>1.133592261952217</v>
+        <v>1.133592261952145</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.08923387043927</v>
+        <v>16.0892338704391</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4137094895335522</v>
+        <v>0.4137094895334954</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.121091002191633</v>
+        <v>7.121091002191349</v>
       </c>
       <c r="C15">
-        <v>2.070262112101716</v>
+        <v>2.070262112102398</v>
       </c>
       <c r="D15">
-        <v>0.6959520245490864</v>
+        <v>0.695952024549598</v>
       </c>
       <c r="E15">
-        <v>1.115864263149476</v>
+        <v>1.115864263149462</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.85912118299774</v>
+        <v>15.85912118299757</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4071369970443399</v>
+        <v>0.4071369970443754</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.497538175010902</v>
+        <v>6.497538175011073</v>
       </c>
       <c r="C16">
-        <v>1.880766722061594</v>
+        <v>1.880766722061935</v>
       </c>
       <c r="D16">
-        <v>0.6372260750644898</v>
+        <v>0.6372260750643761</v>
       </c>
       <c r="E16">
-        <v>1.018102657598234</v>
+        <v>1.018102657598334</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.58483041053466</v>
+        <v>14.58483041053483</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3709430458548368</v>
+        <v>0.3709430458548724</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.133356809182601</v>
+        <v>6.13335680918243</v>
       </c>
       <c r="C17">
-        <v>1.770749231520426</v>
+        <v>1.770749231520369</v>
       </c>
       <c r="D17">
-        <v>0.6028391790424905</v>
+        <v>0.6028391790418652</v>
       </c>
       <c r="E17">
-        <v>0.9610774039297496</v>
+        <v>0.9610774039298349</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.8374310096421</v>
+        <v>13.83743100964207</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3498687702205387</v>
+        <v>0.3498687702203895</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.929651228258706</v>
+        <v>5.929651228258479</v>
       </c>
       <c r="C18">
-        <v>1.709416607114179</v>
+        <v>1.709416607114463</v>
       </c>
       <c r="D18">
-        <v>0.5835768354505149</v>
+        <v>0.5835768354507707</v>
       </c>
       <c r="E18">
-        <v>0.9292012545072339</v>
+        <v>0.9292012545072765</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.41835561110611</v>
+        <v>13.41835561110645</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3381003500542903</v>
+        <v>0.3381003500542832</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.861588769731441</v>
+        <v>5.861588769730986</v>
       </c>
       <c r="C19">
-        <v>1.688956522349429</v>
+        <v>1.688956522349997</v>
       </c>
       <c r="D19">
-        <v>0.5771364373820518</v>
+        <v>0.5771364373825065</v>
       </c>
       <c r="E19">
-        <v>0.9185539307534043</v>
+        <v>0.9185539307535038</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.27817068701475</v>
+        <v>13.27817068701466</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3341712799280714</v>
+        <v>0.3341712799281424</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.171508299937443</v>
+        <v>6.171508299937216</v>
       </c>
       <c r="C20">
-        <v>1.782252369423247</v>
+        <v>1.782252369422793</v>
       </c>
       <c r="D20">
-        <v>0.6064445533881155</v>
+        <v>0.606444553388684</v>
       </c>
       <c r="E20">
-        <v>0.9670490393887263</v>
+        <v>0.9670490393887121</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.9158374625892</v>
+        <v>13.9158374625888</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3520743769330679</v>
+        <v>0.3520743769331034</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.288685490706712</v>
+        <v>7.288685490706428</v>
       </c>
       <c r="C21">
-        <v>2.121440690547274</v>
+        <v>2.121440690547388</v>
       </c>
       <c r="D21">
-        <v>0.7117028681491604</v>
+        <v>0.7117028681499562</v>
       </c>
       <c r="E21">
         <v>1.142168636692958</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>16.20044895283655</v>
+        <v>16.20044895283627</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4168901298983272</v>
+        <v>0.4168901298982206</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.094467395282209</v>
+        <v>8.094467395282379</v>
       </c>
       <c r="C22">
-        <v>2.369009854844592</v>
+        <v>2.369009854844535</v>
       </c>
       <c r="D22">
-        <v>0.7872313359893042</v>
+        <v>0.7872313359891905</v>
       </c>
       <c r="E22">
-        <v>1.268825897166224</v>
+        <v>1.268825897166252</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.83456129643326</v>
+        <v>17.83456129643366</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.463942665344355</v>
+        <v>0.4639426653444545</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.655975448502943</v>
+        <v>7.655975448502772</v>
       </c>
       <c r="C23">
-        <v>2.233974886343958</v>
+        <v>2.23397488634339</v>
       </c>
       <c r="D23">
-        <v>0.7461715679833958</v>
+        <v>0.7461715679834526</v>
       </c>
       <c r="E23">
-        <v>1.199861469021712</v>
+        <v>1.199861469021727</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.94674245508924</v>
+        <v>16.94674245508929</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4383038377107411</v>
+        <v>0.4383038377108619</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.15424258778711</v>
+        <v>6.154242587787451</v>
       </c>
       <c r="C24">
-        <v>1.777045907036666</v>
+        <v>1.777045907037802</v>
       </c>
       <c r="D24">
-        <v>0.6048130041723709</v>
+        <v>0.6048130041725699</v>
       </c>
       <c r="E24">
-        <v>0.9643464707887972</v>
+        <v>0.9643464707888256</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.88035726553034</v>
+        <v>13.88035726553051</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3510761543560363</v>
+        <v>0.3510761543559937</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.75029502807007</v>
+        <v>4.750295028070184</v>
       </c>
       <c r="C25">
-        <v>1.357122091126996</v>
+        <v>1.357122091127508</v>
       </c>
       <c r="D25">
-        <v>0.4716727047968448</v>
+        <v>0.4716727047962195</v>
       </c>
       <c r="E25">
-        <v>0.7449068732969835</v>
+        <v>0.7449068732968556</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.9776441313177</v>
+        <v>10.97764413131756</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2702157529162363</v>
+        <v>0.2702157529162861</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.825006724566094</v>
+        <v>3.825006724566151</v>
       </c>
       <c r="C2">
-        <v>1.08385542245469</v>
+        <v>1.083855422454207</v>
       </c>
       <c r="D2">
-        <v>0.3834318804331645</v>
+        <v>0.383431880433136</v>
       </c>
       <c r="E2">
-        <v>0.600538489145066</v>
+        <v>0.6005384891450944</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9.044839761332895</v>
+        <v>9.044839761332952</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2172064448676565</v>
+        <v>0.2172064448676636</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.241235338904175</v>
+        <v>3.241235338904005</v>
       </c>
       <c r="C3">
-        <v>0.9127361655366144</v>
+        <v>0.9127361655369555</v>
       </c>
       <c r="D3">
-        <v>0.3275666320437836</v>
+        <v>0.3275666320439399</v>
       </c>
       <c r="E3">
-        <v>0.5095036563083184</v>
+        <v>0.50950365630829</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.816625153492538</v>
+        <v>7.816625153492652</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1838460918184524</v>
+        <v>0.1838460918184417</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.8983918433143</v>
+        <v>2.898391843314243</v>
       </c>
       <c r="C4">
-        <v>0.8126583905958285</v>
+        <v>0.8126583905958</v>
       </c>
       <c r="D4">
         <v>0.2946893802683377</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1642736544233827</v>
+        <v>0.1642736544234289</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.761905918614048</v>
+        <v>2.761905918613877</v>
       </c>
       <c r="C5">
-        <v>0.7728965515422317</v>
+        <v>0.7728965515421464</v>
       </c>
       <c r="D5">
-        <v>0.2815870908628</v>
+        <v>0.2815870908624589</v>
       </c>
       <c r="E5">
-        <v>0.4347499386955391</v>
+        <v>0.434749938695461</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.802446761914666</v>
+        <v>6.802446761914837</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1564842778439157</v>
+        <v>0.1564842778439797</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.739419242382553</v>
+        <v>2.739419242382269</v>
       </c>
       <c r="C6">
-        <v>0.7663497040328195</v>
+        <v>0.7663497040322795</v>
       </c>
       <c r="D6">
-        <v>0.2794276752381393</v>
+        <v>0.2794276752382387</v>
       </c>
       <c r="E6">
         <v>0.4312423305687432</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.754730696283474</v>
+        <v>6.754730696283644</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1552010212617851</v>
+        <v>0.1552010212618136</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>2.896538919172201</v>
       </c>
       <c r="C7">
-        <v>0.8121182952761785</v>
+        <v>0.812118295277088</v>
       </c>
       <c r="D7">
-        <v>0.2945115571126422</v>
+        <v>0.2945115571129122</v>
       </c>
       <c r="E7">
-        <v>0.4557490814188299</v>
+        <v>0.4557490814189151</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1641678996200895</v>
+        <v>0.1641678996201179</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>3.620026007060176</v>
       </c>
       <c r="C8">
-        <v>1.023662630439588</v>
+        <v>1.0236626304401</v>
       </c>
       <c r="D8">
-        <v>0.363832606182811</v>
+        <v>0.3638326061824415</v>
       </c>
       <c r="E8">
-        <v>0.5685715265996194</v>
+        <v>0.5685715265995412</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.614391950854355</v>
+        <v>8.614391950854156</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2054865770834731</v>
+        <v>0.2054865770835121</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202362017756229</v>
+        <v>5.202362017755775</v>
       </c>
       <c r="C9">
-        <v>1.491612344347118</v>
+        <v>1.491612344347004</v>
       </c>
       <c r="D9">
-        <v>0.5146439054038865</v>
+        <v>0.5146439054038012</v>
       </c>
       <c r="E9">
-        <v>0.8155039009131144</v>
+        <v>0.8155039009131428</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.91615201622778</v>
+        <v>11.91615201622787</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2961898300208645</v>
+        <v>0.2961898300208858</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.539941181839822</v>
+        <v>6.539941181839652</v>
       </c>
       <c r="C10">
-        <v>1.893607544967779</v>
+        <v>1.89360754496704</v>
       </c>
       <c r="D10">
-        <v>0.6412256667340159</v>
+        <v>0.641225666734158</v>
       </c>
       <c r="E10">
-        <v>1.024745612584596</v>
+        <v>1.02474561258461</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.67170161534926</v>
+        <v>14.67170161534892</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3733998063908004</v>
+        <v>0.3733998063908288</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.212348725721768</v>
+        <v>7.212348725722052</v>
       </c>
       <c r="C11">
-        <v>2.098116453772093</v>
+        <v>2.098116453772036</v>
       </c>
       <c r="D11">
-        <v>0.7045303546112507</v>
+        <v>0.7045303546111654</v>
       </c>
       <c r="E11">
-        <v>1.130185813577654</v>
+        <v>1.13018581357764</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>16.04504083398001</v>
+        <v>16.04504083398012</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4124463582575899</v>
+        <v>0.4124463582575331</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.479482649003558</v>
+        <v>7.479482649003501</v>
       </c>
       <c r="C12">
-        <v>2.179834568291369</v>
+        <v>2.179834568291994</v>
       </c>
       <c r="D12">
-        <v>0.729617016990602</v>
+        <v>0.7296170169907725</v>
       </c>
       <c r="E12">
-        <v>1.172130475855184</v>
+        <v>1.172130475855141</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.58842701694067</v>
+        <v>16.58842701694033</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4280071177201066</v>
+        <v>0.4280071177200924</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.421326006594029</v>
+        <v>7.421326006593858</v>
       </c>
       <c r="C13">
-        <v>2.162020872825337</v>
+        <v>2.162020872825394</v>
       </c>
       <c r="D13">
-        <v>0.7241585903547048</v>
+        <v>0.7241585903550458</v>
       </c>
       <c r="E13">
-        <v>1.162996034699759</v>
+        <v>1.162996034699802</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.47023626900477</v>
+        <v>16.47023626900483</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4246170096286122</v>
+        <v>0.424617009628605</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.234051281755626</v>
+        <v>7.234051281756138</v>
       </c>
       <c r="C14">
         <v>2.104745293020414</v>
       </c>
       <c r="D14">
-        <v>0.7065698012743837</v>
+        <v>0.7065698012739858</v>
       </c>
       <c r="E14">
-        <v>1.133592261952145</v>
+        <v>1.133592261952217</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.0892338704391</v>
+        <v>16.08923387043927</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4137094895334954</v>
+        <v>0.4137094895335522</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.121091002191349</v>
+        <v>7.121091002191633</v>
       </c>
       <c r="C15">
-        <v>2.070262112102398</v>
+        <v>2.070262112101716</v>
       </c>
       <c r="D15">
-        <v>0.695952024549598</v>
+        <v>0.6959520245490864</v>
       </c>
       <c r="E15">
-        <v>1.115864263149462</v>
+        <v>1.115864263149476</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.85912118299757</v>
+        <v>15.85912118299774</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4071369970443754</v>
+        <v>0.4071369970443399</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.497538175011073</v>
+        <v>6.497538175010902</v>
       </c>
       <c r="C16">
-        <v>1.880766722061935</v>
+        <v>1.880766722061594</v>
       </c>
       <c r="D16">
-        <v>0.6372260750643761</v>
+        <v>0.6372260750644898</v>
       </c>
       <c r="E16">
-        <v>1.018102657598334</v>
+        <v>1.018102657598234</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.58483041053483</v>
+        <v>14.58483041053466</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3709430458548724</v>
+        <v>0.3709430458548368</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.13335680918243</v>
+        <v>6.133356809182601</v>
       </c>
       <c r="C17">
-        <v>1.770749231520369</v>
+        <v>1.770749231520426</v>
       </c>
       <c r="D17">
-        <v>0.6028391790418652</v>
+        <v>0.6028391790424905</v>
       </c>
       <c r="E17">
-        <v>0.9610774039298349</v>
+        <v>0.9610774039297496</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.83743100964207</v>
+        <v>13.8374310096421</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3498687702203895</v>
+        <v>0.3498687702205387</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.929651228258479</v>
+        <v>5.929651228258706</v>
       </c>
       <c r="C18">
-        <v>1.709416607114463</v>
+        <v>1.709416607114179</v>
       </c>
       <c r="D18">
-        <v>0.5835768354507707</v>
+        <v>0.5835768354505149</v>
       </c>
       <c r="E18">
-        <v>0.9292012545072765</v>
+        <v>0.9292012545072339</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.41835561110645</v>
+        <v>13.41835561110611</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3381003500542832</v>
+        <v>0.3381003500542903</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.861588769730986</v>
+        <v>5.861588769731441</v>
       </c>
       <c r="C19">
-        <v>1.688956522349997</v>
+        <v>1.688956522349429</v>
       </c>
       <c r="D19">
-        <v>0.5771364373825065</v>
+        <v>0.5771364373820518</v>
       </c>
       <c r="E19">
-        <v>0.9185539307535038</v>
+        <v>0.9185539307534043</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.27817068701466</v>
+        <v>13.27817068701475</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3341712799281424</v>
+        <v>0.3341712799280714</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.171508299937216</v>
+        <v>6.171508299937443</v>
       </c>
       <c r="C20">
-        <v>1.782252369422793</v>
+        <v>1.782252369423247</v>
       </c>
       <c r="D20">
-        <v>0.606444553388684</v>
+        <v>0.6064445533881155</v>
       </c>
       <c r="E20">
-        <v>0.9670490393887121</v>
+        <v>0.9670490393887263</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.9158374625888</v>
+        <v>13.9158374625892</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3520743769331034</v>
+        <v>0.3520743769330679</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.288685490706428</v>
+        <v>7.288685490706712</v>
       </c>
       <c r="C21">
-        <v>2.121440690547388</v>
+        <v>2.121440690547274</v>
       </c>
       <c r="D21">
-        <v>0.7117028681499562</v>
+        <v>0.7117028681491604</v>
       </c>
       <c r="E21">
         <v>1.142168636692958</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>16.20044895283627</v>
+        <v>16.20044895283655</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4168901298982206</v>
+        <v>0.4168901298983272</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.094467395282379</v>
+        <v>8.094467395282209</v>
       </c>
       <c r="C22">
-        <v>2.369009854844535</v>
+        <v>2.369009854844592</v>
       </c>
       <c r="D22">
-        <v>0.7872313359891905</v>
+        <v>0.7872313359893042</v>
       </c>
       <c r="E22">
-        <v>1.268825897166252</v>
+        <v>1.268825897166224</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.83456129643366</v>
+        <v>17.83456129643326</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4639426653444545</v>
+        <v>0.463942665344355</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.655975448502772</v>
+        <v>7.655975448502943</v>
       </c>
       <c r="C23">
-        <v>2.23397488634339</v>
+        <v>2.233974886343958</v>
       </c>
       <c r="D23">
-        <v>0.7461715679834526</v>
+        <v>0.7461715679833958</v>
       </c>
       <c r="E23">
-        <v>1.199861469021727</v>
+        <v>1.199861469021712</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.94674245508929</v>
+        <v>16.94674245508924</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4383038377108619</v>
+        <v>0.4383038377107411</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.154242587787451</v>
+        <v>6.15424258778711</v>
       </c>
       <c r="C24">
-        <v>1.777045907037802</v>
+        <v>1.777045907036666</v>
       </c>
       <c r="D24">
-        <v>0.6048130041725699</v>
+        <v>0.6048130041723709</v>
       </c>
       <c r="E24">
-        <v>0.9643464707888256</v>
+        <v>0.9643464707887972</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.88035726553051</v>
+        <v>13.88035726553034</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3510761543559937</v>
+        <v>0.3510761543560363</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.750295028070184</v>
+        <v>4.75029502807007</v>
       </c>
       <c r="C25">
-        <v>1.357122091127508</v>
+        <v>1.357122091126996</v>
       </c>
       <c r="D25">
-        <v>0.4716727047962195</v>
+        <v>0.4716727047968448</v>
       </c>
       <c r="E25">
-        <v>0.7449068732968556</v>
+        <v>0.7449068732969835</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.97764413131756</v>
+        <v>10.9776441313177</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2702157529162861</v>
+        <v>0.2702157529162363</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.825006724566151</v>
+        <v>3.823509336276288</v>
       </c>
       <c r="C2">
-        <v>1.083855422454207</v>
+        <v>1.083145274505256</v>
       </c>
       <c r="D2">
-        <v>0.383431880433136</v>
+        <v>0.3833544901665391</v>
       </c>
       <c r="E2">
-        <v>0.6005384891450944</v>
+        <v>0.6004084826548421</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9.044839761332952</v>
+        <v>2.967505170402575</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.025954560869224</v>
       </c>
       <c r="I2">
-        <v>0.2172064448676636</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2171583230026073</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.241235338904005</v>
+        <v>3.240270821253944</v>
       </c>
       <c r="C3">
-        <v>0.9127361655369555</v>
+        <v>0.9122534176497652</v>
       </c>
       <c r="D3">
-        <v>0.3275666320439399</v>
+        <v>0.3275161273516716</v>
       </c>
       <c r="E3">
-        <v>0.50950365630829</v>
+        <v>0.5094186339123468</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.816625153492652</v>
+        <v>2.556555099955062</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.216873917831748</v>
       </c>
       <c r="I3">
-        <v>0.1838460918184417</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1838146267117047</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.898391843314243</v>
+        <v>2.897688791209134</v>
       </c>
       <c r="C4">
-        <v>0.8126583905958</v>
+        <v>0.8122905809840404</v>
       </c>
       <c r="D4">
-        <v>0.2946893802683377</v>
+        <v>0.2946518832137457</v>
       </c>
       <c r="E4">
-        <v>0.456038069733637</v>
+        <v>0.4559747622860684</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.091791245161858</v>
+        <v>2.313936753366733</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.739450197047717</v>
       </c>
       <c r="I4">
-        <v>0.1642736544234289</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1642502165262094</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.761905918613877</v>
+        <v>2.761296332909694</v>
       </c>
       <c r="C5">
-        <v>0.7728965515421464</v>
+        <v>0.7725706804072274</v>
       </c>
       <c r="D5">
-        <v>0.2815870908624589</v>
+        <v>0.2815542242588975</v>
       </c>
       <c r="E5">
-        <v>0.434749938695461</v>
+        <v>0.4346943581732745</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.802446761914837</v>
+        <v>2.217064337406782</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.548884676148845</v>
       </c>
       <c r="I5">
-        <v>0.1564842778439797</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1564636944891937</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.739419242382269</v>
+        <v>2.73882447179119</v>
       </c>
       <c r="C6">
-        <v>0.7663497040322795</v>
+        <v>0.7660305332348685</v>
       </c>
       <c r="D6">
-        <v>0.2794276752382387</v>
+        <v>0.2793955421462613</v>
       </c>
       <c r="E6">
-        <v>0.4312423305687432</v>
+        <v>0.4311879741090934</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.754730696283644</v>
+        <v>2.201087714710667</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.517459342635362</v>
       </c>
       <c r="I6">
-        <v>0.1552010212618136</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1551808900377623</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.896538919172201</v>
+        <v>2.895837176609234</v>
       </c>
       <c r="C7">
-        <v>0.812118295277088</v>
+        <v>0.811751069598273</v>
       </c>
       <c r="D7">
-        <v>0.2945115571129122</v>
+        <v>0.2944741249821163</v>
       </c>
       <c r="E7">
-        <v>0.4557490814189151</v>
+        <v>0.455685882314377</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.087866228663216</v>
+        <v>2.312622748233451</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.736865070327241</v>
       </c>
       <c r="I7">
-        <v>0.1641678996201179</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1641445017536363</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620026007060176</v>
+        <v>3.618728355848532</v>
       </c>
       <c r="C8">
-        <v>1.0236626304401</v>
+        <v>1.023036910762329</v>
       </c>
       <c r="D8">
-        <v>0.3638326061824415</v>
+        <v>0.3637653584127349</v>
       </c>
       <c r="E8">
-        <v>0.5685715265995412</v>
+        <v>0.5684585096464403</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.614391950854156</v>
+        <v>2.823502443619248</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.742388027383697</v>
       </c>
       <c r="I8">
-        <v>0.2054865770835121</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2054447506710879</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202362017755775</v>
+        <v>5.199154636697074</v>
       </c>
       <c r="C9">
-        <v>1.491612344347004</v>
+        <v>1.490200541577337</v>
       </c>
       <c r="D9">
-        <v>0.5146439054038012</v>
+        <v>0.5144765575385009</v>
       </c>
       <c r="E9">
-        <v>0.8155039009131428</v>
+        <v>0.8152220660394107</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.91615201622787</v>
+        <v>3.927565404644497</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.917635841797136</v>
       </c>
       <c r="I9">
-        <v>0.2961898300208858</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2960852199454607</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.539941181839652</v>
+        <v>6.534398059555144</v>
       </c>
       <c r="C10">
-        <v>1.89360754496704</v>
+        <v>1.891266069697735</v>
       </c>
       <c r="D10">
-        <v>0.641225666734158</v>
+        <v>0.6409278258914526</v>
       </c>
       <c r="E10">
-        <v>1.02474561258461</v>
+        <v>1.024240211610675</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.67170161534892</v>
+        <v>4.848173846745055</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.732980049737137</v>
       </c>
       <c r="I10">
-        <v>0.3733998063908288</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3732114052886928</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.212348725722052</v>
+        <v>7.205339837673705</v>
       </c>
       <c r="C11">
-        <v>2.098116453772036</v>
+        <v>2.095199812479905</v>
       </c>
       <c r="D11">
-        <v>0.7045303546111654</v>
+        <v>0.7041470166319357</v>
       </c>
       <c r="E11">
-        <v>1.13018581357764</v>
+        <v>1.129532134117653</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>16.04504083398012</v>
+        <v>5.306735178292797</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.63758900269141</v>
       </c>
       <c r="I11">
-        <v>0.4124463582575331</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4122020655550003</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.479482649003501</v>
+        <v>7.471830342923738</v>
       </c>
       <c r="C12">
-        <v>2.179834568291994</v>
+        <v>2.176666773195734</v>
       </c>
       <c r="D12">
-        <v>0.7296170169907725</v>
+        <v>0.7291953929342299</v>
       </c>
       <c r="E12">
-        <v>1.172130475855141</v>
+        <v>1.17140998979275</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.58842701694033</v>
+        <v>5.488123859112193</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.99547347517364</v>
       </c>
       <c r="I12">
-        <v>0.4280071177200924</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4277375727036414</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.421326006593858</v>
+        <v>7.413816891263195</v>
       </c>
       <c r="C13">
-        <v>2.162020872825394</v>
+        <v>2.158908911216542</v>
       </c>
       <c r="D13">
-        <v>0.7241585903550458</v>
+        <v>0.7237455243599129</v>
       </c>
       <c r="E13">
-        <v>1.162996034699802</v>
+        <v>1.162290502600314</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.47023626900483</v>
+        <v>5.448672833445528</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.91763302507371</v>
       </c>
       <c r="I13">
-        <v>0.424617009628605</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.424353120645101</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.234051281756138</v>
+        <v>7.226991470730297</v>
       </c>
       <c r="C14">
-        <v>2.104745293020414</v>
+        <v>2.101808748187068</v>
       </c>
       <c r="D14">
-        <v>0.7065698012739858</v>
+        <v>0.7061834492117498</v>
       </c>
       <c r="E14">
-        <v>1.133592261952217</v>
+        <v>1.132933331882668</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.08923387043927</v>
+        <v>5.321488394060395</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.66669632592993</v>
       </c>
       <c r="I14">
-        <v>0.4137094895335522</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4134632136535075</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.121091002191633</v>
+        <v>7.11429368511898</v>
       </c>
       <c r="C15">
-        <v>2.070262112101716</v>
+        <v>2.067428215652797</v>
       </c>
       <c r="D15">
-        <v>0.6959520245490864</v>
+        <v>0.6955811789783297</v>
       </c>
       <c r="E15">
-        <v>1.115864263149476</v>
+        <v>1.115232329458976</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.85912118299774</v>
+        <v>5.244666511929665</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.51513305121739</v>
       </c>
       <c r="I15">
-        <v>0.4071369970443399</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4069009149972445</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.497538175010902</v>
+        <v>6.492080509266714</v>
       </c>
       <c r="C16">
-        <v>1.880766722061594</v>
+        <v>1.878458933773913</v>
       </c>
       <c r="D16">
-        <v>0.6372260750644898</v>
+        <v>0.6369331397915516</v>
       </c>
       <c r="E16">
-        <v>1.018102657598234</v>
+        <v>1.017605723979912</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.58483041053466</v>
+        <v>4.81916145189598</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.675754466866749</v>
       </c>
       <c r="I16">
-        <v>0.3709430458548368</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3707578293956573</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.133356809182601</v>
+        <v>6.128600934353415</v>
       </c>
       <c r="C17">
-        <v>1.770749231520426</v>
+        <v>1.768718871813689</v>
       </c>
       <c r="D17">
-        <v>0.6028391790424905</v>
+        <v>0.6025861742890584</v>
       </c>
       <c r="E17">
-        <v>0.9610774039297496</v>
+        <v>0.960649218978034</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.8374310096421</v>
+        <v>4.569523757620459</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.183395917922127</v>
       </c>
       <c r="I17">
-        <v>0.3498687702205387</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.349709380242075</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.929651228258706</v>
+        <v>5.925263537447449</v>
       </c>
       <c r="C18">
-        <v>1.709416607114179</v>
+        <v>1.707532423273506</v>
       </c>
       <c r="D18">
-        <v>0.5835768354505149</v>
+        <v>0.5833445154667345</v>
       </c>
       <c r="E18">
-        <v>0.9292012545072339</v>
+        <v>0.9288085562822062</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.41835561110611</v>
+        <v>4.429526715870452</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.907313822362454</v>
       </c>
       <c r="I18">
-        <v>0.3381003500542903</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3379542689889163</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.861588769731441</v>
+        <v>5.857320320751057</v>
       </c>
       <c r="C19">
-        <v>1.688956522349429</v>
+        <v>1.687119784593222</v>
       </c>
       <c r="D19">
-        <v>0.5771364373820518</v>
+        <v>0.5769107757179199</v>
       </c>
       <c r="E19">
-        <v>0.9185539307534043</v>
+        <v>0.9181726364733862</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.27817068701475</v>
+        <v>4.382692719913592</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.814960113315038</v>
       </c>
       <c r="I19">
-        <v>0.3341712799280714</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3340294724184716</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.171508299937443</v>
+        <v>6.166681556862898</v>
       </c>
       <c r="C20">
-        <v>1.782252369423247</v>
+        <v>1.780193926499635</v>
       </c>
       <c r="D20">
-        <v>0.6064445533881155</v>
+        <v>0.6061875458674137</v>
       </c>
       <c r="E20">
-        <v>0.9670490393887263</v>
+        <v>0.9666139771438509</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.9158374625892</v>
+        <v>4.595714570319842</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.235048389631629</v>
       </c>
       <c r="I20">
-        <v>0.3520743769330679</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3519124059058854</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.288685490706712</v>
+        <v>7.281496441029674</v>
       </c>
       <c r="C21">
-        <v>2.121440690547274</v>
+        <v>2.118453652853987</v>
       </c>
       <c r="D21">
-        <v>0.7117028681491604</v>
+        <v>0.7113088540218655</v>
       </c>
       <c r="E21">
-        <v>1.142168636692958</v>
+        <v>1.141496352290815</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>16.20044895283655</v>
+        <v>5.358615137775473</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.7399463603715</v>
       </c>
       <c r="I21">
-        <v>0.4168901298983272</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4166388088547848</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.094467395282209</v>
+        <v>8.085188738786769</v>
       </c>
       <c r="C22">
-        <v>2.369009854844592</v>
+        <v>2.365209987263768</v>
       </c>
       <c r="D22">
-        <v>0.7872313359893042</v>
+        <v>0.7867110891127425</v>
       </c>
       <c r="E22">
-        <v>1.268825897166224</v>
+        <v>1.267932267687755</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.83456129643326</v>
+        <v>5.903987683768491</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.81609227681815</v>
       </c>
       <c r="I22">
-        <v>0.463942665344355</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4636074924836251</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.655975448502943</v>
+        <v>7.647877681691511</v>
       </c>
       <c r="C23">
-        <v>2.233974886343958</v>
+        <v>2.230633599452574</v>
       </c>
       <c r="D23">
-        <v>0.7461715679833958</v>
+        <v>0.7457231865785729</v>
       </c>
       <c r="E23">
-        <v>1.199861469021712</v>
+        <v>1.199094153501306</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.94674245508924</v>
+        <v>5.607718002159174</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.23145203140882</v>
       </c>
       <c r="I23">
-        <v>0.4383038377107411</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4380165675387673</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.15424258778711</v>
+        <v>6.14944799215283</v>
       </c>
       <c r="C24">
-        <v>1.777045907036666</v>
+        <v>1.775000201276157</v>
       </c>
       <c r="D24">
-        <v>0.6048130041723709</v>
+        <v>0.6045578132396372</v>
       </c>
       <c r="E24">
-        <v>0.9643464707887972</v>
+        <v>0.9639145300879761</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.88035726553034</v>
+        <v>4.583862870492965</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.211674838299302</v>
       </c>
       <c r="I24">
-        <v>0.3510761543560363</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3509153549156707</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.75029502807007</v>
+        <v>4.747721593999131</v>
       </c>
       <c r="C25">
-        <v>1.357122091126996</v>
+        <v>1.355967215918952</v>
       </c>
       <c r="D25">
-        <v>0.4716727047968448</v>
+        <v>0.4715393297015282</v>
       </c>
       <c r="E25">
-        <v>0.7449068732969835</v>
+        <v>0.7446826162851323</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.9776441313177</v>
+        <v>3.613855239416068</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.299314771942136</v>
       </c>
       <c r="I25">
-        <v>0.2702157529162363</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2701326104318511</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.823509336276288</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.083145274505256</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3833544901665391</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6004084826548421</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.967505170402575</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.025954560869224</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2171583230026073</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.240270821253944</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9122534176497652</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3275161273516716</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5094186339123468</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.556555099955062</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.216873917831748</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1838146267117047</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.897688791209134</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.8122905809840404</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2946518832137457</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4559747622860684</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.313936753366733</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.739450197047717</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1642502165262094</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.761296332909694</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7725706804072274</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2815542242588975</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4346943581732745</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.217064337406782</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.548884676148845</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1564636944891937</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.73882447179119</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7660305332348685</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2793955421462613</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4311879741090934</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.201087714710667</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4.517459342635362</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1551808900377623</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.895837176609234</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.811751069598273</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2944741249821163</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.455685882314377</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.312622748233451</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4.736865070327241</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1641445017536363</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.618728355848532</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.023036910762329</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3637653584127349</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5684585096464403</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.823502443619248</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>5.742388027383697</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2054447506710879</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.199154636697074</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.490200541577337</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5144765575385009</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8152220660394107</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.927565404644497</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>7.917635841797136</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2960852199454607</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.534398059555144</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.891266069697735</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6409278258914526</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.024240211610675</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.848173846745055</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>9.732980049737137</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3732114052886928</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.205339837673705</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.095199812479905</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7041470166319357</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.129532134117653</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.306735178292797</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>10.63758900269141</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4122020655550003</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.471830342923738</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.176666773195734</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7291953929342299</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.17140998979275</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.488123859112193</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>10.99547347517364</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4277375727036414</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.413816891263195</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.158908911216542</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7237455243599129</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.162290502600314</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.448672833445528</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>10.91763302507371</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.424353120645101</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.226991470730297</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.101808748187068</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7061834492117498</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.132933331882668</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.321488394060395</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>10.66669632592993</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4134632136535075</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.11429368511898</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.067428215652797</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6955811789783297</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.115232329458976</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.244666511929665</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>10.51513305121739</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4069009149972445</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.492080509266714</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.878458933773913</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6369331397915516</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1.017605723979912</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.81916145189598</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>9.675754466866749</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3707578293956573</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.128600934353415</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.768718871813689</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6025861742890584</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.960649218978034</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.569523757620459</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>9.183395917922127</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.349709380242075</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.925263537447449</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.707532423273506</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5833445154667345</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9288085562822062</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.429526715870452</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>8.907313822362454</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3379542689889163</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.857320320751057</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.687119784593222</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5769107757179199</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9181726364733862</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.382692719913592</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>8.814960113315038</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3340294724184716</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.166681556862898</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.780193926499635</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6061875458674137</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9666139771438509</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.595714570319842</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>9.235048389631629</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3519124059058854</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.281496441029674</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.118453652853987</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7113088540218655</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.141496352290815</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.358615137775473</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>10.7399463603715</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4166388088547848</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.085188738786769</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.365209987263768</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7867110891127425</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.267932267687755</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.903987683768491</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>11.81609227681815</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4636074924836251</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.647877681691511</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>2.230633599452574</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7457231865785729</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.199094153501306</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.607718002159174</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>11.23145203140882</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4380165675387673</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.14944799215283</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.775000201276157</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6045578132396372</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9639145300879761</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.583862870492965</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9.211674838299302</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3509153549156707</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.747721593999131</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.355967215918952</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4715393297015282</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7446826162851323</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.613855239416068</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>7.299314771942136</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2701326104318511</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.517589827561494</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.566931299473822</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1975444512722646</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.367653983512014</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000804533558215185</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.988012209582337</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>4.134899777616255</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.176308882450655</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.4865038520046028</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1698256853959066</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.163842160967221</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008157398511571079</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.577825767625569</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>3.860049771086807</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.972579599886728</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.4385748255169517</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1532186368482655</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.04277890863591</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008227357176645151</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.333062108348429</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3.695874283509994</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.890809165383928</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.4193525700061684</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1465391094318989</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9942948213842868</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008256195325567247</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.234839452970675</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3.629969700238462</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.87730106077916</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.416177886195868</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1454348666702856</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9862907364447153</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008261004853657994</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.218614388850284</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3.619082403583633</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.971472012843321</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.4383144049739371</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1531282176644453</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.042121807757539</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008227744714259394</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.331731611710467</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>3.694981620627061</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2.398572467560086</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.538861985608122</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1878913759394294</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.296419959207441</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008083761398420825</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.844939236240549</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>4.039081478443137</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.293450638527077</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.7505533208743032</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2601564935893208</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.83688540519617</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007808453366642858</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.921470501862473</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>4.758308355653526</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4.00456129789734</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.9199652676990695</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3171127033955372</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.275689707493171</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007606972345821639</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.778391434969592</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.327267895581599</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.345053186939083</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.001503722756155</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.344248873082762</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.489213956015959</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007514480848663125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5.189216898442226</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.598719799992864</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4.477002357334868</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.03317967423726</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3547417479727528</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.572605410204588</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007479229252620641</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5.348517597957994</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.703731107585668</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.448440339886872</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.026319266198954</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3524715253620769</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.554522821991696</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007486833383358982</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5.314030388637377</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.68100900393091</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4.355844644297747</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.004092681558433</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3451075148189204</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.496020267098899</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007511585928117192</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5.202243263525077</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.607312059775211</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4.299538409443244</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.9905875781963402</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3406264611658969</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.460534040907547</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007526714421048121</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.134279981771783</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.562472904395634</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3.982697198116966</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.9147390671656979</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3153672512097643</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.262057950531116</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007612991456718692</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.75202283999397</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.309814454750892</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.793046503571873</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.8694541881880298</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3002119968387973</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.144201754503058</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000766563654511776</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.523358234412001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.158311512607241</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>3.685524667919879</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.8438173218487748</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2916076691386564</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.077684585984429</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007695845442957428</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4.393763328296927</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.072331280351051</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3.649372268888726</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.8352033064739999</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2887126233886619</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.055367067247033</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007706064313812899</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4.350196534411566</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.04340822708437</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3.813069949827991</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.8742314098703332</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3018133813043846</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.156612798103069</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007660040448131667</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.547495900376305</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.174316535703781</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4.382955329260483</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.010598053477736</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3472642459381632</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.513130146728031</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007504322642981367</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5.234970156741326</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.628894780524377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4.773330794384833</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.10448077609766</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3782596479526035</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.761266371676257</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007401159454387069</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.706472857902725</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.939175244339026</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4.563116974562661</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.053876534749435</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.361582841442484</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.6272313053435</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007456389167933928</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>5.452512292144888</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.772208327349063</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>3.804012684788859</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.8720703994963515</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3010890599767606</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.150997941569145</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007662570615876614</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.536577496296786</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.167077202784242</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>3.043491968802812</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.6912667733574551</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2400412888855925</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.684720952774384</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007882502323589617</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.620580870844833</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>4.557729583224642</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.517589827561494</v>
+        <v>1.310407134505169</v>
       </c>
       <c r="C2">
-        <v>0.566931299473822</v>
+        <v>0.2341592749107235</v>
       </c>
       <c r="D2">
-        <v>0.1975444512722646</v>
+        <v>0.07710129920029374</v>
       </c>
       <c r="E2">
-        <v>1.367653983512014</v>
+        <v>0.3959756075115166</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000804533558215185</v>
+        <v>0.002545752207498691</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.988012209582337</v>
+        <v>1.466823364125617</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.134899777616255</v>
+        <v>3.811003122153409</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176308882450655</v>
+        <v>1.231043832500063</v>
       </c>
       <c r="C3">
-        <v>0.4865038520046028</v>
+        <v>0.2150220195902648</v>
       </c>
       <c r="D3">
-        <v>0.1698256853959066</v>
+        <v>0.07012332434779012</v>
       </c>
       <c r="E3">
-        <v>1.163842160967221</v>
+        <v>0.3453206917850906</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008157398511571079</v>
+        <v>0.002551967485158318</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.577825767625569</v>
+        <v>1.370828922329679</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.860049771086807</v>
+        <v>3.722968303520986</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.972579599886728</v>
+        <v>1.183198978789278</v>
       </c>
       <c r="C4">
-        <v>0.4385748255169517</v>
+        <v>0.2034271803840397</v>
       </c>
       <c r="D4">
-        <v>0.1532186368482655</v>
+        <v>0.06588374940032793</v>
       </c>
       <c r="E4">
-        <v>1.04277890863591</v>
+        <v>0.3143629036607791</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008227357176645151</v>
+        <v>0.00255597461854069</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.333062108348429</v>
+        <v>1.312880959886996</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.695874283509994</v>
+        <v>3.669262844313693</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.890809165383928</v>
+        <v>1.163921329998402</v>
       </c>
       <c r="C5">
-        <v>0.4193525700061684</v>
+        <v>0.1987404303538653</v>
       </c>
       <c r="D5">
-        <v>0.1465391094318989</v>
+        <v>0.06416715493979552</v>
       </c>
       <c r="E5">
-        <v>0.9942948213842868</v>
+        <v>0.3017806228311457</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008256195325567247</v>
+        <v>0.002557655763860448</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.234839452970675</v>
+        <v>1.289512671233666</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.629969700238462</v>
+        <v>3.647462488623972</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.87730106077916</v>
+        <v>1.160733465554614</v>
       </c>
       <c r="C6">
-        <v>0.416177886195868</v>
+        <v>0.19796448377366</v>
       </c>
       <c r="D6">
-        <v>0.1454348666702856</v>
+        <v>0.0638827774631352</v>
       </c>
       <c r="E6">
-        <v>0.9862907364447153</v>
+        <v>0.2996932650272299</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008261004853657994</v>
+        <v>0.002557937834280377</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.218614388850284</v>
+        <v>1.285647133523156</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.619082403583633</v>
+        <v>3.643847620037178</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.971472012843321</v>
+        <v>1.182938108654866</v>
       </c>
       <c r="C7">
-        <v>0.4383144049739371</v>
+        <v>0.2033638195279082</v>
       </c>
       <c r="D7">
-        <v>0.1531282176644453</v>
+        <v>0.06586055430140902</v>
       </c>
       <c r="E7">
-        <v>1.042121807757539</v>
+        <v>0.3141930839503999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008227744714259394</v>
+        <v>0.002555997095719243</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.331731611710467</v>
+        <v>1.312564815894746</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.694981620627061</v>
+        <v>3.668968496023439</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.398572467560086</v>
+        <v>1.282857291852167</v>
       </c>
       <c r="C8">
-        <v>0.538861985608122</v>
+        <v>0.2275279426020802</v>
       </c>
       <c r="D8">
-        <v>0.1878913759394294</v>
+        <v>0.07468582586233197</v>
       </c>
       <c r="E8">
-        <v>1.296419959207441</v>
+        <v>0.3784779168077819</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008083761398420825</v>
+        <v>0.002547855726730774</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.844939236240549</v>
+        <v>1.433516088447078</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.039081478443137</v>
+        <v>3.780574881339675</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.293450638527077</v>
+        <v>1.485961151059087</v>
       </c>
       <c r="C9">
-        <v>0.7505533208743032</v>
+        <v>0.2761896022309145</v>
       </c>
       <c r="D9">
-        <v>0.2601564935893208</v>
+        <v>0.09236012635052759</v>
       </c>
       <c r="E9">
-        <v>1.83688540519617</v>
+        <v>0.5058330011973737</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007808453366642858</v>
+        <v>0.002533396469733063</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.921470501862473</v>
+        <v>1.678763974033416</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.758308355653526</v>
+        <v>4.002323386633662</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.00456129789734</v>
+        <v>1.63976702702638</v>
       </c>
       <c r="C10">
-        <v>0.9199652676990695</v>
+        <v>0.3127816063781381</v>
       </c>
       <c r="D10">
-        <v>0.3171127033955372</v>
+        <v>0.1055871569923994</v>
       </c>
       <c r="E10">
-        <v>2.275689707493171</v>
+        <v>0.6004014291201116</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007606972345821639</v>
+        <v>0.0025236786763903</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.778391434969592</v>
+        <v>1.864140086466534</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.327267895581599</v>
+        <v>4.167193352175673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.345053186939083</v>
+        <v>1.710782426692731</v>
       </c>
       <c r="C11">
-        <v>1.001503722756155</v>
+        <v>0.329624732035029</v>
       </c>
       <c r="D11">
-        <v>0.344248873082762</v>
+        <v>0.1116608800105325</v>
       </c>
       <c r="E11">
-        <v>2.489213956015959</v>
+        <v>0.6436877380211428</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007514480848663125</v>
+        <v>0.002519451684386511</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.189216898442226</v>
+        <v>1.949662445970546</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.598719799992864</v>
+        <v>4.242663211968761</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.477002357334868</v>
+        <v>1.737828645904244</v>
       </c>
       <c r="C12">
-        <v>1.03317967423726</v>
+        <v>0.3360322411148218</v>
       </c>
       <c r="D12">
-        <v>0.3547417479727528</v>
+        <v>0.113969289283034</v>
       </c>
       <c r="E12">
-        <v>2.572605410204588</v>
+        <v>0.6601212629791036</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007479229252620641</v>
+        <v>0.002517878672991136</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.348517597957994</v>
+        <v>1.982224018967429</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.703731107585668</v>
+        <v>4.271312389077536</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.448440339886872</v>
+        <v>1.731996843014713</v>
       </c>
       <c r="C13">
-        <v>1.026319266198954</v>
+        <v>0.3346509460882032</v>
       </c>
       <c r="D13">
-        <v>0.3524715253620769</v>
+        <v>0.1134717530766096</v>
       </c>
       <c r="E13">
-        <v>2.554522821991696</v>
+        <v>0.6565800860393267</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007486833383358982</v>
+        <v>0.002518216222150195</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.314030388637377</v>
+        <v>1.975203397202506</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.68100900393091</v>
+        <v>4.265139100334522</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.355844644297747</v>
+        <v>1.713004424223755</v>
       </c>
       <c r="C14">
-        <v>1.004092681558433</v>
+        <v>0.3301512868588361</v>
       </c>
       <c r="D14">
-        <v>0.3451075148189204</v>
+        <v>0.111850623859894</v>
       </c>
       <c r="E14">
-        <v>2.496020267098899</v>
+        <v>0.6450388726155722</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007511585928117192</v>
+        <v>0.002519321718589485</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.202243263525077</v>
+        <v>1.952337750835966</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.607312059775211</v>
+        <v>4.245018770087938</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.299538409443244</v>
+        <v>1.701391209139217</v>
       </c>
       <c r="C15">
-        <v>0.9905875781963402</v>
+        <v>0.3273989728538425</v>
       </c>
       <c r="D15">
-        <v>0.3406264611658969</v>
+        <v>0.110858740387215</v>
       </c>
       <c r="E15">
-        <v>2.460534040907547</v>
+        <v>0.6379751158861637</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007526714421048121</v>
+        <v>0.002520002463394563</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.134279981771783</v>
+        <v>1.938354950679184</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.562472904395634</v>
+        <v>4.232703737320264</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.982697198116966</v>
+        <v>1.635147394332705</v>
       </c>
       <c r="C16">
-        <v>0.9147390671656979</v>
+        <v>0.3116849241515638</v>
       </c>
       <c r="D16">
-        <v>0.3153672512097643</v>
+        <v>0.1051913885456912</v>
       </c>
       <c r="E16">
-        <v>2.262057950531116</v>
+        <v>0.5975782383419954</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007612991456718692</v>
+        <v>0.002523958801019027</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.75202283999397</v>
+        <v>1.858575399283211</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.309814454750892</v>
+        <v>4.162270912251699</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.793046503571873</v>
+        <v>1.594779912490253</v>
       </c>
       <c r="C17">
-        <v>0.8694541881880298</v>
+        <v>0.3020961006705249</v>
       </c>
       <c r="D17">
-        <v>0.3002119968387973</v>
+        <v>0.1017293603405562</v>
       </c>
       <c r="E17">
-        <v>2.144201754503058</v>
+        <v>0.5728668927541491</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000766563654511776</v>
+        <v>0.002526435355768575</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.523358234412001</v>
+        <v>1.809942124392023</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.158311512607241</v>
+        <v>4.11918495860931</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.685524667919879</v>
+        <v>1.571660065754941</v>
       </c>
       <c r="C18">
-        <v>0.8438173218487748</v>
+        <v>0.2965993657445551</v>
       </c>
       <c r="D18">
-        <v>0.2916076691386564</v>
+        <v>0.09974341170880052</v>
       </c>
       <c r="E18">
-        <v>2.077684585984429</v>
+        <v>0.5586784597535654</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007695845442957428</v>
+        <v>0.00252787804615256</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.393763328296927</v>
+        <v>1.782081648699261</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.072331280351051</v>
+        <v>4.09444709420228</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.649372268888726</v>
+        <v>1.563848889052565</v>
       </c>
       <c r="C19">
-        <v>0.8352033064739999</v>
+        <v>0.2947414128958883</v>
       </c>
       <c r="D19">
-        <v>0.2887126233886619</v>
+        <v>0.09907190889414608</v>
       </c>
       <c r="E19">
-        <v>2.055367067247033</v>
+        <v>0.5538786649527054</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007706064313812899</v>
+        <v>0.002528369655206627</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.350196534411566</v>
+        <v>1.77266768966723</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.04340822708437</v>
+        <v>4.086078755905277</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.813069949827991</v>
+        <v>1.59906688455635</v>
       </c>
       <c r="C20">
-        <v>0.8742314098703332</v>
+        <v>0.3031149250207648</v>
       </c>
       <c r="D20">
-        <v>0.3018133813043846</v>
+        <v>0.1020973467676924</v>
       </c>
       <c r="E20">
-        <v>2.156612798103069</v>
+        <v>0.5754948569625213</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007660040448131667</v>
+        <v>0.002526169835603923</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.547495900376305</v>
+        <v>1.815107586015472</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.174316535703781</v>
+        <v>4.123766953896876</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.382955329260483</v>
+        <v>1.71857874413746</v>
       </c>
       <c r="C21">
-        <v>1.010598053477736</v>
+        <v>0.3314721401592635</v>
       </c>
       <c r="D21">
-        <v>0.3472642459381632</v>
+        <v>0.1123265580376085</v>
       </c>
       <c r="E21">
-        <v>2.513130146728031</v>
+        <v>0.6484276395146793</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007504322642981367</v>
+        <v>0.002518996258345662</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.234970156741326</v>
+        <v>1.959049129926768</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.628894780524377</v>
+        <v>4.250926665877216</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.773330794384833</v>
+        <v>1.797587290851823</v>
       </c>
       <c r="C22">
-        <v>1.10448077609766</v>
+        <v>0.3501769757636453</v>
       </c>
       <c r="D22">
-        <v>0.3782596479526035</v>
+        <v>0.1190611602568765</v>
       </c>
       <c r="E22">
-        <v>2.761266371676257</v>
+        <v>0.6963396070966326</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007401159454387069</v>
+        <v>0.002514469037436328</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.706472857902725</v>
+        <v>2.054151898560292</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.939175244339026</v>
+        <v>4.334444462673616</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.563116974562661</v>
+        <v>1.755335362402775</v>
       </c>
       <c r="C23">
-        <v>1.053876534749435</v>
+        <v>0.3401777941847399</v>
       </c>
       <c r="D23">
-        <v>0.361582841442484</v>
+        <v>0.1154621812323029</v>
       </c>
       <c r="E23">
-        <v>2.6272313053435</v>
+        <v>0.6707443550018723</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007456389167933928</v>
+        <v>0.002516870621121594</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.452512292144888</v>
+        <v>2.003298145326994</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.772208327349063</v>
+        <v>4.28983083348777</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.804012684788859</v>
+        <v>1.597128470782877</v>
       </c>
       <c r="C24">
-        <v>0.8720703994963515</v>
+        <v>0.3026542647486963</v>
       </c>
       <c r="D24">
-        <v>0.3010890599767606</v>
+        <v>0.1019309663651597</v>
       </c>
       <c r="E24">
-        <v>2.150997941569145</v>
+        <v>0.5743066971510586</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007662570615876614</v>
+        <v>0.002526289818490913</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.536577496296786</v>
+        <v>1.812771971410825</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.167077202784242</v>
+        <v>4.121695331800822</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.043491968802812</v>
+        <v>1.430227011860836</v>
       </c>
       <c r="C25">
-        <v>0.6912667733574551</v>
+        <v>0.262882358888902</v>
       </c>
       <c r="D25">
-        <v>0.2400412888855925</v>
+        <v>0.0875375875195914</v>
       </c>
       <c r="E25">
-        <v>1.684720952774384</v>
+        <v>0.4712199558381371</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007882502323589617</v>
+        <v>0.002537148166456838</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.620580870844833</v>
+        <v>1.611526435414248</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.557729583224642</v>
+        <v>3.942005756885521</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.310407134505169</v>
+        <v>2.517589827561721</v>
       </c>
       <c r="C2">
-        <v>0.2341592749107235</v>
+        <v>0.5669312994737652</v>
       </c>
       <c r="D2">
-        <v>0.07710129920029374</v>
+        <v>0.1975444512718667</v>
       </c>
       <c r="E2">
-        <v>0.3959756075115166</v>
+        <v>1.367653983511943</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002545752207498691</v>
+        <v>0.0008045335582142412</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.466823364125617</v>
+        <v>2.988012209582223</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.811003122153409</v>
+        <v>4.134899777616255</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.231043832500063</v>
+        <v>2.176308882450712</v>
       </c>
       <c r="C3">
-        <v>0.2150220195902648</v>
+        <v>0.4865038520047733</v>
       </c>
       <c r="D3">
-        <v>0.07012332434779012</v>
+        <v>0.1698256853962619</v>
       </c>
       <c r="E3">
-        <v>0.3453206917850906</v>
+        <v>1.163842160967263</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002551967485158318</v>
+        <v>0.0008157398510794572</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.370828922329679</v>
+        <v>2.577825767625711</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.722968303520986</v>
+        <v>3.860049771086807</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.183198978789278</v>
+        <v>1.972579599886842</v>
       </c>
       <c r="C4">
-        <v>0.2034271803840397</v>
+        <v>0.4385748255169517</v>
       </c>
       <c r="D4">
-        <v>0.06588374940032793</v>
+        <v>0.1532186368482797</v>
       </c>
       <c r="E4">
-        <v>0.3143629036607791</v>
+        <v>1.042778908635938</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00255597461854069</v>
+        <v>0.0008227357176645704</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.312880959886996</v>
+        <v>2.333062108348372</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.669262844313693</v>
+        <v>3.695874283510022</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.163921329998402</v>
+        <v>1.890809165383928</v>
       </c>
       <c r="C5">
-        <v>0.1987404303538653</v>
+        <v>0.41935257000668</v>
       </c>
       <c r="D5">
-        <v>0.06416715493979552</v>
+        <v>0.1465391094319699</v>
       </c>
       <c r="E5">
-        <v>0.3017806228311457</v>
+        <v>0.9942948213842868</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002557655763860448</v>
+        <v>0.0008256195325055944</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.289512671233666</v>
+        <v>2.234839452970675</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647462488623972</v>
+        <v>3.629969700238462</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.160733465554614</v>
+        <v>1.877301060779132</v>
       </c>
       <c r="C6">
-        <v>0.19796448377366</v>
+        <v>0.4161778861961523</v>
       </c>
       <c r="D6">
-        <v>0.0638827774631352</v>
+        <v>0.1454348666704277</v>
       </c>
       <c r="E6">
-        <v>0.2996932650272299</v>
+        <v>0.9862907364446443</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002557937834280377</v>
+        <v>0.0008261004854286902</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.285647133523156</v>
+        <v>2.218614388850227</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.643847620037178</v>
+        <v>3.619082403583633</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.182938108654866</v>
+        <v>1.971472012843549</v>
       </c>
       <c r="C7">
-        <v>0.2033638195279082</v>
+        <v>0.4383144049739087</v>
       </c>
       <c r="D7">
-        <v>0.06586055430140902</v>
+        <v>0.15312821766436</v>
       </c>
       <c r="E7">
-        <v>0.3141930839503999</v>
+        <v>1.042121807757596</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002555997095719243</v>
+        <v>0.0008227744714952173</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.312564815894746</v>
+        <v>2.331731611710524</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.668968496023439</v>
+        <v>3.694981620627033</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.282857291852167</v>
+        <v>2.398572467559973</v>
       </c>
       <c r="C8">
-        <v>0.2275279426020802</v>
+        <v>0.5388619856081505</v>
       </c>
       <c r="D8">
-        <v>0.07468582586233197</v>
+        <v>0.1878913759393441</v>
       </c>
       <c r="E8">
-        <v>0.3784779168077819</v>
+        <v>1.296419959207441</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002547855726730774</v>
+        <v>0.0008083761398198768</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.433516088447078</v>
+        <v>2.844939236240663</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.780574881339675</v>
+        <v>4.03908147844308</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.485961151059087</v>
+        <v>3.293450638526906</v>
       </c>
       <c r="C9">
-        <v>0.2761896022309145</v>
+        <v>0.7505533208742179</v>
       </c>
       <c r="D9">
-        <v>0.09236012635052759</v>
+        <v>0.2601564935895624</v>
       </c>
       <c r="E9">
-        <v>0.5058330011973737</v>
+        <v>1.836885405196085</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002533396469733063</v>
+        <v>0.0007808453367621791</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.678763974033416</v>
+        <v>3.921470501862416</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.002323386633662</v>
+        <v>4.758308355653554</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.63976702702638</v>
+        <v>4.00456129789734</v>
       </c>
       <c r="C10">
-        <v>0.3127816063781381</v>
+        <v>0.9199652676990695</v>
       </c>
       <c r="D10">
-        <v>0.1055871569923994</v>
+        <v>0.3171127033954946</v>
       </c>
       <c r="E10">
-        <v>0.6004014291201116</v>
+        <v>2.275689707493228</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0025236786763903</v>
+        <v>0.000760697234668977</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.864140086466534</v>
+        <v>4.778391434969762</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.167193352175673</v>
+        <v>5.327267895581542</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.710782426692731</v>
+        <v>4.34505318693914</v>
       </c>
       <c r="C11">
-        <v>0.329624732035029</v>
+        <v>1.001503722756496</v>
       </c>
       <c r="D11">
-        <v>0.1116608800105325</v>
+        <v>0.3442488730827762</v>
       </c>
       <c r="E11">
-        <v>0.6436877380211428</v>
+        <v>2.489213956015945</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002519451684386511</v>
+        <v>0.0007514480848522579</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.949662445970546</v>
+        <v>5.189216898442226</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.242663211968761</v>
+        <v>5.598719799992864</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.737828645904244</v>
+        <v>4.477002357335039</v>
       </c>
       <c r="C12">
-        <v>0.3360322411148218</v>
+        <v>1.033179674237005</v>
       </c>
       <c r="D12">
-        <v>0.113969289283034</v>
+        <v>0.3547417479727244</v>
       </c>
       <c r="E12">
-        <v>0.6601212629791036</v>
+        <v>2.572605410204574</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002517878672991136</v>
+        <v>0.0007479229251563753</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.982224018967429</v>
+        <v>5.348517597958335</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.271312389077536</v>
+        <v>5.703731107585668</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.731996843014713</v>
+        <v>4.448440339886986</v>
       </c>
       <c r="C13">
-        <v>0.3346509460882032</v>
+        <v>1.026319266198755</v>
       </c>
       <c r="D13">
-        <v>0.1134717530766096</v>
+        <v>0.3524715253623043</v>
       </c>
       <c r="E13">
-        <v>0.6565800860393267</v>
+        <v>2.55452282199154</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002518216222150195</v>
+        <v>0.000748683338093974</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.975203397202506</v>
+        <v>5.31403038863715</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.265139100334522</v>
+        <v>5.681009003930853</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.713004424223755</v>
+        <v>4.355844644297747</v>
       </c>
       <c r="C14">
-        <v>0.3301512868588361</v>
+        <v>1.004092681558006</v>
       </c>
       <c r="D14">
-        <v>0.111850623859894</v>
+        <v>0.3451075148188778</v>
       </c>
       <c r="E14">
-        <v>0.6450388726155722</v>
+        <v>2.496020267098828</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002519321718589485</v>
+        <v>0.0007511585929578224</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.952337750835966</v>
+        <v>5.20224326352519</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.245018770087938</v>
+        <v>5.607312059775154</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.701391209139217</v>
+        <v>4.299538409443301</v>
       </c>
       <c r="C15">
-        <v>0.3273989728538425</v>
+        <v>0.9905875781969371</v>
       </c>
       <c r="D15">
-        <v>0.110858740387215</v>
+        <v>0.3406264611659253</v>
       </c>
       <c r="E15">
-        <v>0.6379751158861637</v>
+        <v>2.460534040907561</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002520002463394563</v>
+        <v>0.0007526714419219888</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.938354950679184</v>
+        <v>5.134279981771499</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.232703737320264</v>
+        <v>5.56247290439569</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.635147394332705</v>
+        <v>3.982697198117137</v>
       </c>
       <c r="C16">
-        <v>0.3116849241515638</v>
+        <v>0.9147390671655558</v>
       </c>
       <c r="D16">
-        <v>0.1051913885456912</v>
+        <v>0.3153672512098211</v>
       </c>
       <c r="E16">
-        <v>0.5975782383419954</v>
+        <v>2.26205795053113</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002523958801019027</v>
+        <v>0.0007612991456786114</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.858575399283211</v>
+        <v>4.752022839993856</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.162270912251699</v>
+        <v>5.309814454750892</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.594779912490253</v>
+        <v>3.793046503571759</v>
       </c>
       <c r="C17">
-        <v>0.3020961006705249</v>
+        <v>0.8694541881883424</v>
       </c>
       <c r="D17">
-        <v>0.1017293603405562</v>
+        <v>0.3002119968388541</v>
       </c>
       <c r="E17">
-        <v>0.5728668927541491</v>
+        <v>2.14420175450303</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002526435355768575</v>
+        <v>0.0007665636544546557</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.809942124392023</v>
+        <v>4.523358234412001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.11918495860931</v>
+        <v>5.158311512607355</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.571660065754941</v>
+        <v>3.685524667919822</v>
       </c>
       <c r="C18">
-        <v>0.2965993657445551</v>
+        <v>0.84381732184832</v>
       </c>
       <c r="D18">
-        <v>0.09974341170880052</v>
+        <v>0.2916076691390401</v>
       </c>
       <c r="E18">
-        <v>0.5586784597535654</v>
+        <v>2.077684585984414</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00252787804615256</v>
+        <v>0.0007695845444334266</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.782081648699261</v>
+        <v>4.39376332829687</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.09444709420228</v>
+        <v>5.072331280351108</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.563848889052565</v>
+        <v>3.649372268888783</v>
       </c>
       <c r="C19">
-        <v>0.2947414128958883</v>
+        <v>0.8352033064745967</v>
       </c>
       <c r="D19">
-        <v>0.09907190889414608</v>
+        <v>0.2887126233880792</v>
       </c>
       <c r="E19">
-        <v>0.5538786649527054</v>
+        <v>2.055367067247047</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002528369655206627</v>
+        <v>0.0007706064315253591</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.77266768966723</v>
+        <v>4.350196534411623</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.086078755905277</v>
+        <v>5.043408227084313</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.59906688455635</v>
+        <v>3.813069949827991</v>
       </c>
       <c r="C20">
-        <v>0.3031149250207648</v>
+        <v>0.8742314098699637</v>
       </c>
       <c r="D20">
-        <v>0.1020973467676924</v>
+        <v>0.301813381304683</v>
       </c>
       <c r="E20">
-        <v>0.5754948569625213</v>
+        <v>2.156612798103097</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002526169835603923</v>
+        <v>0.0007660040448602015</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.815107586015472</v>
+        <v>4.547495900376475</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.123766953896876</v>
+        <v>5.174316535703724</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.71857874413746</v>
+        <v>4.382955329260596</v>
       </c>
       <c r="C21">
-        <v>0.3314721401592635</v>
+        <v>1.01059805347731</v>
       </c>
       <c r="D21">
-        <v>0.1123265580376085</v>
+        <v>0.3472642459380921</v>
       </c>
       <c r="E21">
-        <v>0.6484276395146793</v>
+        <v>2.513130146727946</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002518996258345662</v>
+        <v>0.0007504322642875795</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.959049129926768</v>
+        <v>5.23497015674161</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.250926665877216</v>
+        <v>5.628894780524433</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.797587290851823</v>
+        <v>4.773330794384833</v>
       </c>
       <c r="C22">
-        <v>0.3501769757636453</v>
+        <v>1.104480776097716</v>
       </c>
       <c r="D22">
-        <v>0.1190611602568765</v>
+        <v>0.3782596479527598</v>
       </c>
       <c r="E22">
-        <v>0.6963396070966326</v>
+        <v>2.7612663716763</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002514469037436328</v>
+        <v>0.0007401159453731568</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.054151898560292</v>
+        <v>5.706472857902838</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.334444462673616</v>
+        <v>5.939175244339197</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.755335362402775</v>
+        <v>4.563116974562831</v>
       </c>
       <c r="C23">
-        <v>0.3401777941847399</v>
+        <v>1.053876534749833</v>
       </c>
       <c r="D23">
-        <v>0.1154621812323029</v>
+        <v>0.3615828414424556</v>
       </c>
       <c r="E23">
-        <v>0.6707443550018723</v>
+        <v>2.627231305343528</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002516870621121594</v>
+        <v>0.0007456389166404823</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.003298145326994</v>
+        <v>5.452512292144831</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.28983083348777</v>
+        <v>5.772208327349119</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.597128470782877</v>
+        <v>3.804012684788802</v>
       </c>
       <c r="C24">
-        <v>0.3026542647486963</v>
+        <v>0.8720703994960388</v>
       </c>
       <c r="D24">
-        <v>0.1019309663651597</v>
+        <v>0.3010890599763343</v>
       </c>
       <c r="E24">
-        <v>0.5743066971510586</v>
+        <v>2.150997941569116</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002526289818490913</v>
+        <v>0.0007662570614939135</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.812771971410825</v>
+        <v>4.536577496296786</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.121695331800822</v>
+        <v>5.16707720278427</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.430227011860836</v>
+        <v>3.043491968802471</v>
       </c>
       <c r="C25">
-        <v>0.262882358888902</v>
+        <v>0.6912667733573414</v>
       </c>
       <c r="D25">
-        <v>0.0875375875195914</v>
+        <v>0.2400412888857346</v>
       </c>
       <c r="E25">
-        <v>0.4712199558381371</v>
+        <v>1.684720952774384</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002537148166456838</v>
+        <v>0.0007882502324377471</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.611526435414248</v>
+        <v>3.620580870844719</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.942005756885521</v>
+        <v>4.557729583224585</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.517589827561721</v>
+        <v>3.358472950938392</v>
       </c>
       <c r="C2">
-        <v>0.5669312994737652</v>
+        <v>0.6151561624979252</v>
       </c>
       <c r="D2">
-        <v>0.1975444512718667</v>
+        <v>0.228497766316238</v>
       </c>
       <c r="E2">
-        <v>1.367653983511943</v>
+        <v>0.04336370946804635</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008045335582142412</v>
+        <v>1.823199766868129</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01319062670817978</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01295592923746369</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.119425312638867</v>
       </c>
       <c r="K2">
-        <v>2.988012209582223</v>
+        <v>1.06451914378848</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02360900773988206</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.134899777616255</v>
+        <v>0.4686090482880871</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176308882450712</v>
+        <v>2.931484099289833</v>
       </c>
       <c r="C3">
-        <v>0.4865038520047733</v>
+        <v>0.5337531181343991</v>
       </c>
       <c r="D3">
-        <v>0.1698256853962619</v>
+        <v>0.2111967807936139</v>
       </c>
       <c r="E3">
-        <v>1.163842160967263</v>
+        <v>0.04019724492249033</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008157398510794572</v>
+        <v>1.683825269858204</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01837649335347502</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01799675711777216</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.058435682074276</v>
       </c>
       <c r="K3">
-        <v>2.577825767625711</v>
+        <v>1.012979087065844</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0199437679758816</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.860049771086807</v>
+        <v>0.4149513073131317</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.972579599886842</v>
+        <v>2.669771580227632</v>
       </c>
       <c r="C4">
-        <v>0.4385748255169517</v>
+        <v>0.4843222452693681</v>
       </c>
       <c r="D4">
-        <v>0.1532186368482797</v>
+        <v>0.2006512582163822</v>
       </c>
       <c r="E4">
-        <v>1.042778908635938</v>
+        <v>0.03824543534434266</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008227357176645704</v>
+        <v>1.598853360985288</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02210442438407689</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02165668908416052</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.021373690853039</v>
       </c>
       <c r="K4">
-        <v>2.333062108348372</v>
+        <v>0.9814700512872889</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.01777813998353217</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.695874283510022</v>
+        <v>0.3821864695706978</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.890809165383928</v>
+        <v>2.563209157806853</v>
       </c>
       <c r="C5">
-        <v>0.41935257000668</v>
+        <v>0.4649937368943995</v>
       </c>
       <c r="D5">
-        <v>0.1465391094319699</v>
+        <v>0.1963081140111171</v>
       </c>
       <c r="E5">
-        <v>0.9942948213842868</v>
+        <v>0.03742255171474174</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008256195325055944</v>
+        <v>1.561502510538048</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02376480669346148</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0233820367672557</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.004906449288569</v>
       </c>
       <c r="K5">
-        <v>2.234839452970675</v>
+        <v>0.9668104580587595</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0169228333349416</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.629969700238462</v>
+        <v>0.369044088255535</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.877301060779132</v>
+        <v>2.545526830213248</v>
       </c>
       <c r="C6">
-        <v>0.4161778861961523</v>
+        <v>0.462639554051492</v>
       </c>
       <c r="D6">
-        <v>0.1454348666704277</v>
+        <v>0.1955110197367418</v>
       </c>
       <c r="E6">
-        <v>0.9862907364446443</v>
+        <v>0.03725557493840537</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008261004854286902</v>
+        <v>1.551826533306311</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02406150162492393</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02380450576641646</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.00040683692788</v>
       </c>
       <c r="K6">
-        <v>2.218614388850227</v>
+        <v>0.9621266400878312</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01679240970082319</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.619082403583633</v>
+        <v>0.367073443981127</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.971472012843549</v>
+        <v>2.668349108331086</v>
       </c>
       <c r="C7">
-        <v>0.4383144049739087</v>
+        <v>0.4863820551236699</v>
       </c>
       <c r="D7">
-        <v>0.15312821766436</v>
+        <v>0.200382594650435</v>
       </c>
       <c r="E7">
-        <v>1.042121807757596</v>
+        <v>0.03815191393160511</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008227744714952173</v>
+        <v>1.588827775335773</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0221604829881521</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02200896493180782</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.016313461654789</v>
       </c>
       <c r="K7">
-        <v>2.331731611710524</v>
+        <v>0.9751181814939756</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.01779492274656569</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.694981620627033</v>
+        <v>0.3825825809027208</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.398572467559973</v>
+        <v>3.211112922875827</v>
       </c>
       <c r="C8">
-        <v>0.5388619856081505</v>
+        <v>0.5900574209508136</v>
       </c>
       <c r="D8">
-        <v>0.1878913759393441</v>
+        <v>0.2222366292144073</v>
       </c>
       <c r="E8">
-        <v>1.296419959207441</v>
+        <v>0.04216328357417432</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008083761398198768</v>
+        <v>1.762354506977488</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01489750967164832</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01495796028724516</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.091898612084663</v>
       </c>
       <c r="K8">
-        <v>2.844939236240663</v>
+        <v>1.038557328551498</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.02236169107825958</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.03908147844308</v>
+        <v>0.450830877842634</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.293450638526906</v>
+        <v>4.280930667251823</v>
       </c>
       <c r="C9">
-        <v>0.7505533208742179</v>
+        <v>0.7943057243236638</v>
       </c>
       <c r="D9">
-        <v>0.2601564935895624</v>
+        <v>0.2661976157579033</v>
       </c>
       <c r="E9">
-        <v>1.836885405196085</v>
+        <v>0.0501630907996109</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007808453367621791</v>
+        <v>2.125930179455139</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.005233005238171717</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.005463572607769862</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.252484245933658</v>
       </c>
       <c r="K9">
-        <v>3.921470501862416</v>
+        <v>1.175612768722644</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03207302248184618</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.758308355653554</v>
+        <v>0.5854095961928323</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.00456129789734</v>
+        <v>5.072361566810685</v>
       </c>
       <c r="C10">
-        <v>0.9199652676990695</v>
+        <v>0.952711438055843</v>
       </c>
       <c r="D10">
-        <v>0.3171127033954946</v>
+        <v>0.2942488944186294</v>
       </c>
       <c r="E10">
-        <v>2.275689707493228</v>
+        <v>0.0544619092567924</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000760697234668977</v>
+        <v>2.346229810022521</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001708872610215906</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002117974325525296</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.347241799957317</v>
       </c>
       <c r="K10">
-        <v>4.778391434969762</v>
+        <v>1.246985207839373</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.04113666963343476</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.327267895581542</v>
+        <v>0.6708861019744035</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.34505318693914</v>
+        <v>5.428862177395331</v>
       </c>
       <c r="C11">
-        <v>1.001503722756496</v>
+        <v>1.056078776884021</v>
       </c>
       <c r="D11">
-        <v>0.3442488730827762</v>
+        <v>0.2665288509444821</v>
       </c>
       <c r="E11">
-        <v>2.489213956015945</v>
+        <v>0.04501491698569549</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007514480848522579</v>
+        <v>2.03254981703256</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01999035591855503</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002144839253693576</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.182454927030676</v>
       </c>
       <c r="K11">
-        <v>5.189216898442226</v>
+        <v>1.040123950317671</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06076355038305792</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.598719799992864</v>
+        <v>0.5827788075528133</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.477002357335039</v>
+        <v>5.561946847367324</v>
       </c>
       <c r="C12">
-        <v>1.033179674237005</v>
+        <v>1.107163488650485</v>
       </c>
       <c r="D12">
-        <v>0.3547417479727244</v>
+        <v>0.2388149132464576</v>
       </c>
       <c r="E12">
-        <v>2.572605410204574</v>
+        <v>0.03967743951093627</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007479229251563753</v>
+        <v>1.754113334815287</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05875388947173121</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002101090336488198</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.039430574886126</v>
       </c>
       <c r="K12">
-        <v>5.348517597958335</v>
+        <v>0.8758163043116411</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0814738977631464</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.703731107585668</v>
+        <v>0.4954845328879998</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.448440339886986</v>
+        <v>5.529321990065114</v>
       </c>
       <c r="C13">
-        <v>1.026319266198755</v>
+        <v>1.124044905390292</v>
       </c>
       <c r="D13">
-        <v>0.3524715253623043</v>
+        <v>0.2093485198744958</v>
       </c>
       <c r="E13">
-        <v>2.55452282199154</v>
+        <v>0.03704214790627747</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000748683338093974</v>
+        <v>1.472507846062911</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1149381120118562</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002360188754865433</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.8975762959904046</v>
       </c>
       <c r="K13">
-        <v>5.31403038863715</v>
+        <v>0.7253646568210925</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1039152666103291</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.681009003930853</v>
+        <v>0.4054205056022369</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.355844644297747</v>
+        <v>5.431587802722049</v>
       </c>
       <c r="C14">
-        <v>1.004092681558006</v>
+        <v>1.121210595371167</v>
       </c>
       <c r="D14">
-        <v>0.3451075148188778</v>
+        <v>0.1882754729800524</v>
       </c>
       <c r="E14">
-        <v>2.496020267098828</v>
+        <v>0.03686967298468069</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007511585929578224</v>
+        <v>1.27603945936994</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1647932124937626</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002837728517729232</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.799719090235584</v>
       </c>
       <c r="K14">
-        <v>5.20224326352519</v>
+        <v>0.6279854448440929</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1210544499596082</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.607312059775154</v>
+        <v>0.3427974809136458</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.299538409443301</v>
+        <v>5.372519947507726</v>
       </c>
       <c r="C15">
-        <v>0.9905875781969371</v>
+        <v>1.114071048514973</v>
       </c>
       <c r="D15">
-        <v>0.3406264611659253</v>
+        <v>0.1825972564552814</v>
       </c>
       <c r="E15">
-        <v>2.460534040907561</v>
+        <v>0.03695516020797918</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007526714419219888</v>
+        <v>1.223023132229343</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1775600699689335</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003190169627278472</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.773897835621483</v>
       </c>
       <c r="K15">
-        <v>5.134279981771499</v>
+        <v>0.6039214802222403</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1247952298442812</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.56247290439569</v>
+        <v>0.3265068735295813</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.982697198117137</v>
+        <v>5.037195189374927</v>
       </c>
       <c r="C16">
-        <v>0.9147390671655558</v>
+        <v>1.042539242135149</v>
       </c>
       <c r="D16">
-        <v>0.3153672512098211</v>
+        <v>0.1772045576818329</v>
       </c>
       <c r="E16">
-        <v>2.26205795053113</v>
+        <v>0.03570643348546865</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007612991456786114</v>
+        <v>1.186304952781754</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1662677864872109</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004565024179300714</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7618750737837274</v>
       </c>
       <c r="K16">
-        <v>4.752022839993856</v>
+        <v>0.6035072330157334</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1155368357028195</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.309814454750892</v>
+        <v>0.3113582963588044</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.793046503571759</v>
+        <v>4.832650296562747</v>
       </c>
       <c r="C17">
-        <v>0.8694541881883424</v>
+        <v>0.9895307986205921</v>
       </c>
       <c r="D17">
-        <v>0.3002119968388541</v>
+        <v>0.1839923333273816</v>
       </c>
       <c r="E17">
-        <v>2.14420175450303</v>
+        <v>0.0345191254369337</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007665636544546557</v>
+        <v>1.259446229489299</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1293925699021941</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005445116679350548</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.8032448674988899</v>
       </c>
       <c r="K17">
-        <v>4.523358234412001</v>
+        <v>0.6527439344670185</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09896819281994595</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.158311512607355</v>
+        <v>0.3319291724867099</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.685524667919822</v>
+        <v>4.716238827444386</v>
       </c>
       <c r="C18">
-        <v>0.84381732184832</v>
+        <v>0.9444334043560332</v>
       </c>
       <c r="D18">
-        <v>0.2916076691390401</v>
+        <v>0.2029322240863678</v>
       </c>
       <c r="E18">
-        <v>2.077684585984414</v>
+        <v>0.03492424814217188</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007695845444334266</v>
+        <v>1.451294446934838</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07677651149153775</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005432565973380044</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9030617544625272</v>
       </c>
       <c r="K18">
-        <v>4.39376332829687</v>
+        <v>0.7621100227218562</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07689228734620457</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.072331280351108</v>
+        <v>0.3885945658237802</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.649372268888783</v>
+        <v>4.678565663931863</v>
       </c>
       <c r="C19">
-        <v>0.8352033064745967</v>
+        <v>0.9143591668475892</v>
       </c>
       <c r="D19">
-        <v>0.2887126233880792</v>
+        <v>0.2313083085732615</v>
       </c>
       <c r="E19">
-        <v>2.055367067247047</v>
+        <v>0.039021535164947</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007706064315253591</v>
+        <v>1.727353510255426</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03094693892384726</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005209343121178378</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.043510023612157</v>
       </c>
       <c r="K19">
-        <v>4.350196534411623</v>
+        <v>0.9169256514221544</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05625189155941612</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.043408227084313</v>
+        <v>0.4767767279814592</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.813069949827991</v>
+        <v>4.863778208239353</v>
       </c>
       <c r="C20">
-        <v>0.8742314098699637</v>
+        <v>0.9183414782587818</v>
       </c>
       <c r="D20">
-        <v>0.301813381304683</v>
+        <v>0.2859873384163052</v>
       </c>
       <c r="E20">
-        <v>2.156612798103097</v>
+        <v>0.05300224185256752</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007660040448602015</v>
+        <v>2.256174933813895</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002426255807427502</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003615664024622767</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.306095044004593</v>
       </c>
       <c r="K20">
-        <v>4.547495900376475</v>
+        <v>1.207888093952135</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03882598401896331</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.174316535703724</v>
+        <v>0.6495291267904975</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.382955329260596</v>
+        <v>5.474602161545874</v>
       </c>
       <c r="C21">
-        <v>1.01059805347731</v>
+        <v>1.035536382425562</v>
       </c>
       <c r="D21">
-        <v>0.3472642459380921</v>
+        <v>0.3152497582513831</v>
       </c>
       <c r="E21">
-        <v>2.513130146727946</v>
+        <v>0.05885802196620915</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007504322642875795</v>
+        <v>2.507897130001425</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0004235310863451858</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001974352168126359</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.420402999226525</v>
       </c>
       <c r="K21">
-        <v>5.23497015674161</v>
+        <v>1.310796557611809</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.04413255421045292</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.628894780524433</v>
+        <v>0.7390214880903017</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.773330794384833</v>
+        <v>5.875755987121408</v>
       </c>
       <c r="C22">
-        <v>1.104480776097716</v>
+        <v>1.111694865872721</v>
       </c>
       <c r="D22">
-        <v>0.3782596479527598</v>
+        <v>0.3324063825776875</v>
       </c>
       <c r="E22">
-        <v>2.7612663716763</v>
+        <v>0.06202116199891883</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007401159453731568</v>
+        <v>2.662476445409624</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.228486306370513E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001410259814125681</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.490157838191976</v>
       </c>
       <c r="K22">
-        <v>5.706472857902838</v>
+        <v>1.372488867031365</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0483942413003895</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.939175244339197</v>
+        <v>0.7894361052955219</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.563116974562831</v>
+        <v>5.661575207089413</v>
       </c>
       <c r="C23">
-        <v>1.053876534749833</v>
+        <v>1.068113274043242</v>
       </c>
       <c r="D23">
-        <v>0.3615828414424556</v>
+        <v>0.3234834793573782</v>
       </c>
       <c r="E23">
-        <v>2.627231305343528</v>
+        <v>0.06042965077281792</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007456389166404823</v>
+        <v>2.591168640841573</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001557893673678201</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001321400055951827</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.458564877272522</v>
       </c>
       <c r="K23">
-        <v>5.452512292144831</v>
+        <v>1.346778459111405</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.04607528098920355</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.772208327349119</v>
+        <v>0.7617847169936454</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.804012684788802</v>
+        <v>4.85438150496384</v>
       </c>
       <c r="C24">
-        <v>0.8720703994960388</v>
+        <v>0.9098067093423481</v>
       </c>
       <c r="D24">
-        <v>0.3010890599763343</v>
+        <v>0.2896519635249888</v>
       </c>
       <c r="E24">
-        <v>2.150997941569116</v>
+        <v>0.05431725140028298</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007662570614939135</v>
+        <v>2.307146304637314</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002222098503886327</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003063678699115613</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.331924090338219</v>
       </c>
       <c r="K24">
-        <v>4.536577496296786</v>
+        <v>1.239389273404242</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03772187350705991</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.16707720278427</v>
+        <v>0.6590927767990564</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.043491968802471</v>
+        <v>3.990576310092024</v>
       </c>
       <c r="C25">
-        <v>0.6912667733573414</v>
+        <v>0.7426585071482918</v>
       </c>
       <c r="D25">
-        <v>0.2400412888857346</v>
+        <v>0.2538283881425798</v>
       </c>
       <c r="E25">
-        <v>1.684720952774384</v>
+        <v>0.04784285696456969</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007882502324377471</v>
+        <v>2.009378199094243</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.007339262264535684</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007973551379683919</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.19979314891151</v>
       </c>
       <c r="K25">
-        <v>3.620580870844719</v>
+        <v>1.127146134866813</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.02938609846436435</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.557729583224585</v>
+        <v>0.5498169638809145</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.358472950938392</v>
+        <v>3.362250554809407</v>
       </c>
       <c r="C2">
-        <v>0.6151561624979252</v>
+        <v>0.7131944611749645</v>
       </c>
       <c r="D2">
-        <v>0.228497766316238</v>
+        <v>0.2213026873622113</v>
       </c>
       <c r="E2">
-        <v>0.04336370946804635</v>
+        <v>0.04097989335604701</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.823199766868129</v>
+        <v>1.398021291998987</v>
       </c>
       <c r="H2">
-        <v>0.01319062670817978</v>
+        <v>0.01037214802544006</v>
       </c>
       <c r="I2">
-        <v>0.01295592923746369</v>
+        <v>0.009133289089854557</v>
       </c>
       <c r="J2">
-        <v>1.119425312638867</v>
+        <v>0.9217509066577634</v>
       </c>
       <c r="K2">
-        <v>1.06451914378848</v>
+        <v>0.7870587118345895</v>
       </c>
       <c r="L2">
-        <v>0.02360900773988206</v>
+        <v>0.3276267286459813</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2638920054123339</v>
       </c>
       <c r="N2">
-        <v>0.4686090482880871</v>
+        <v>0.02580610235487057</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.5039905279096359</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931484099289833</v>
+        <v>2.93282960506815</v>
       </c>
       <c r="C3">
-        <v>0.5337531181343991</v>
+        <v>0.6157099599949163</v>
       </c>
       <c r="D3">
-        <v>0.2111967807936139</v>
+        <v>0.2055584740011511</v>
       </c>
       <c r="E3">
-        <v>0.04019724492249033</v>
+        <v>0.0384996397221844</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.683825269858204</v>
+        <v>1.314789187786502</v>
       </c>
       <c r="H3">
-        <v>0.01837649335347502</v>
+        <v>0.01449200093444741</v>
       </c>
       <c r="I3">
-        <v>0.01799675711777216</v>
+        <v>0.01272358845157529</v>
       </c>
       <c r="J3">
-        <v>1.058435682074276</v>
+        <v>0.8786077748316785</v>
       </c>
       <c r="K3">
-        <v>1.012979087065844</v>
+        <v>0.7661504664770007</v>
       </c>
       <c r="L3">
-        <v>0.0199437679758816</v>
+        <v>0.3257055731657914</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2515095418427222</v>
       </c>
       <c r="N3">
-        <v>0.4149513073131317</v>
+        <v>0.02205052648850092</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.4468559912263146</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669771580227632</v>
+        <v>2.669212168685647</v>
       </c>
       <c r="C4">
-        <v>0.4843222452693681</v>
+        <v>0.5565063412739732</v>
       </c>
       <c r="D4">
-        <v>0.2006512582163822</v>
+        <v>0.1959628305438059</v>
       </c>
       <c r="E4">
-        <v>0.03824543534434266</v>
+        <v>0.03696293708541099</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.598853360985288</v>
+        <v>1.264189377185076</v>
       </c>
       <c r="H4">
-        <v>0.02210442438407689</v>
+        <v>0.01746047486938607</v>
       </c>
       <c r="I4">
-        <v>0.02165668908416052</v>
+        <v>0.01535899782771644</v>
       </c>
       <c r="J4">
-        <v>1.021373690853039</v>
+        <v>0.851929484905753</v>
       </c>
       <c r="K4">
-        <v>0.9814700512872889</v>
+        <v>0.7532725329024501</v>
       </c>
       <c r="L4">
-        <v>0.01777813998353217</v>
+        <v>0.3242163106986808</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2447410087872939</v>
       </c>
       <c r="N4">
-        <v>0.3821864695706978</v>
+        <v>0.01981073435988812</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.4119676860694597</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.563209157806853</v>
+        <v>2.561772152721289</v>
       </c>
       <c r="C5">
-        <v>0.4649937368943995</v>
+        <v>0.5331927845074347</v>
       </c>
       <c r="D5">
-        <v>0.1963081140111171</v>
+        <v>0.1920152604620426</v>
       </c>
       <c r="E5">
-        <v>0.03742255171474174</v>
+        <v>0.03631290197230985</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.561502510538048</v>
+        <v>1.241503714352191</v>
       </c>
       <c r="H5">
-        <v>0.02376480669346148</v>
+        <v>0.0187838346789807</v>
       </c>
       <c r="I5">
-        <v>0.0233820367672557</v>
+        <v>0.016643205606381</v>
       </c>
       <c r="J5">
-        <v>1.004906449288569</v>
+        <v>0.8398635957930054</v>
       </c>
       <c r="K5">
-        <v>0.9668104580587595</v>
+        <v>0.7466713574217962</v>
       </c>
       <c r="L5">
-        <v>0.0169228333349416</v>
+        <v>0.3229586502249902</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2417597295167191</v>
       </c>
       <c r="N5">
-        <v>0.369044088255535</v>
+        <v>0.01892240910419929</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3979456649959019</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.545526830213248</v>
+        <v>2.54393001549488</v>
       </c>
       <c r="C6">
-        <v>0.462639554051492</v>
+        <v>0.5301431958734497</v>
       </c>
       <c r="D6">
-        <v>0.1955110197367418</v>
+        <v>0.1912954631550576</v>
       </c>
       <c r="E6">
-        <v>0.03725557493840537</v>
+        <v>0.03618062320687887</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.551826533306311</v>
+        <v>1.235091374260534</v>
       </c>
       <c r="H6">
-        <v>0.02406150162492393</v>
+        <v>0.01901993848667882</v>
       </c>
       <c r="I6">
-        <v>0.02380450576641646</v>
+        <v>0.01700206351019951</v>
       </c>
       <c r="J6">
-        <v>1.00040683692788</v>
+        <v>0.8364613380018397</v>
       </c>
       <c r="K6">
-        <v>0.9621266400878312</v>
+        <v>0.7439422265113507</v>
       </c>
       <c r="L6">
-        <v>0.01679240970082319</v>
+        <v>0.3220474559593001</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2407537301580653</v>
       </c>
       <c r="N6">
-        <v>0.367073443981127</v>
+        <v>0.01878792830016529</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3958072585165269</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.668349108331086</v>
+        <v>2.667753374088306</v>
       </c>
       <c r="C7">
-        <v>0.4863820551236699</v>
+        <v>0.5573750807830322</v>
       </c>
       <c r="D7">
-        <v>0.200382594650435</v>
+        <v>0.1957837349018661</v>
       </c>
       <c r="E7">
-        <v>0.03815191393160511</v>
+        <v>0.03689844735250425</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.588827775335773</v>
+        <v>1.259439288760163</v>
       </c>
       <c r="H7">
-        <v>0.0221604829881521</v>
+        <v>0.01752037816436136</v>
       </c>
       <c r="I7">
-        <v>0.02200896493180782</v>
+        <v>0.01575218690806857</v>
       </c>
       <c r="J7">
-        <v>1.016313461654789</v>
+        <v>0.8381986280668627</v>
       </c>
       <c r="K7">
-        <v>0.9751181814939756</v>
+        <v>0.7465962635054737</v>
       </c>
       <c r="L7">
-        <v>0.01779492274656569</v>
+        <v>0.3214237627627199</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2425469005350145</v>
       </c>
       <c r="N7">
-        <v>0.3825825809027208</v>
+        <v>0.01980077198679986</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.4120304382100386</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211112922875827</v>
+        <v>3.214079155579157</v>
       </c>
       <c r="C8">
-        <v>0.5900574209508136</v>
+        <v>0.6788962226880528</v>
       </c>
       <c r="D8">
-        <v>0.2222366292144073</v>
+        <v>0.2158016325229681</v>
       </c>
       <c r="E8">
-        <v>0.04216328357417432</v>
+        <v>0.04007571070140603</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.762354506977488</v>
+        <v>1.369079841791233</v>
       </c>
       <c r="H8">
-        <v>0.01489750967164832</v>
+        <v>0.01176724648601064</v>
       </c>
       <c r="I8">
-        <v>0.01495796028724516</v>
+        <v>0.01074713851359288</v>
       </c>
       <c r="J8">
-        <v>1.091898612084663</v>
+        <v>0.8698159002472607</v>
       </c>
       <c r="K8">
-        <v>1.038557328551498</v>
+        <v>0.7670339997435534</v>
       </c>
       <c r="L8">
-        <v>0.02236169107825958</v>
+        <v>0.3218845352577304</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2549913892929858</v>
       </c>
       <c r="N8">
-        <v>0.450830877842634</v>
+        <v>0.0244341771174188</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4840539140937636</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.280930667251823</v>
+        <v>4.287182037890773</v>
       </c>
       <c r="C9">
-        <v>0.7943057243236638</v>
+        <v>0.9228390409607243</v>
       </c>
       <c r="D9">
-        <v>0.2661976157579033</v>
+        <v>0.2558424944333524</v>
       </c>
       <c r="E9">
-        <v>0.0501630907996109</v>
+        <v>0.04630754516033697</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.125930179455139</v>
+        <v>1.591917593664846</v>
       </c>
       <c r="H9">
-        <v>0.005233005238171717</v>
+        <v>0.004109039201368736</v>
       </c>
       <c r="I9">
-        <v>0.005463572607769862</v>
+        <v>0.003992935607865178</v>
       </c>
       <c r="J9">
-        <v>1.252484245933658</v>
+        <v>0.9721771250135305</v>
       </c>
       <c r="K9">
-        <v>1.175612768722644</v>
+        <v>0.8226716120989153</v>
       </c>
       <c r="L9">
-        <v>0.03207302248184618</v>
+        <v>0.326737888448406</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2915380988174832</v>
       </c>
       <c r="N9">
-        <v>0.5854095961928323</v>
+        <v>0.03420161964486468</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.6271416422115834</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.072361566810685</v>
+        <v>5.077914089163073</v>
       </c>
       <c r="C10">
-        <v>0.952711438055843</v>
+        <v>1.102254276102201</v>
       </c>
       <c r="D10">
-        <v>0.2942488944186294</v>
+        <v>0.281614524215172</v>
       </c>
       <c r="E10">
-        <v>0.0544619092567924</v>
+        <v>0.04957543844923151</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.346229810022521</v>
+        <v>1.741166804056093</v>
       </c>
       <c r="H10">
-        <v>0.001708872610215906</v>
+        <v>0.001395644756890579</v>
       </c>
       <c r="I10">
-        <v>0.002117974325525296</v>
+        <v>0.001833626114791542</v>
       </c>
       <c r="J10">
-        <v>1.347241799957317</v>
+        <v>0.9743612490305225</v>
       </c>
       <c r="K10">
-        <v>1.246985207839373</v>
+        <v>0.8328072761766236</v>
       </c>
       <c r="L10">
-        <v>0.04113666963343476</v>
+        <v>0.3177923539817229</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3106093460939832</v>
       </c>
       <c r="N10">
-        <v>0.6708861019744035</v>
+        <v>0.04319285680357865</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.7161439786361399</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.428862177395331</v>
+        <v>5.433786662009254</v>
       </c>
       <c r="C11">
-        <v>1.056078776884021</v>
+        <v>1.184754793396394</v>
       </c>
       <c r="D11">
-        <v>0.2665288509444821</v>
+        <v>0.2561699889987352</v>
       </c>
       <c r="E11">
-        <v>0.04501491698569549</v>
+        <v>0.04170664107929412</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.03254981703256</v>
+        <v>1.550706054190414</v>
       </c>
       <c r="H11">
-        <v>0.01999035591855503</v>
+        <v>0.01977961616652024</v>
       </c>
       <c r="I11">
-        <v>0.002144839253693576</v>
+        <v>0.002158610972444741</v>
       </c>
       <c r="J11">
-        <v>1.182454927030676</v>
+        <v>0.7600922655801696</v>
       </c>
       <c r="K11">
-        <v>1.040123950317671</v>
+        <v>0.6743605700623974</v>
       </c>
       <c r="L11">
-        <v>0.06076355038305792</v>
+        <v>0.2568986442648153</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2542600702302309</v>
       </c>
       <c r="N11">
-        <v>0.5827788075528133</v>
+        <v>0.06396306716272093</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.6181822492865052</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.561946847367324</v>
+        <v>5.566893575239931</v>
       </c>
       <c r="C12">
-        <v>1.107163488650485</v>
+        <v>1.216633423136784</v>
       </c>
       <c r="D12">
-        <v>0.2388149132464576</v>
+        <v>0.230417252257368</v>
       </c>
       <c r="E12">
-        <v>0.03967743951093627</v>
+        <v>0.03754204369760372</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.754113334815287</v>
+        <v>1.367736992460408</v>
       </c>
       <c r="H12">
-        <v>0.05875388947173121</v>
+        <v>0.05853700114893456</v>
       </c>
       <c r="I12">
-        <v>0.002101090336488198</v>
+        <v>0.002127894638592309</v>
       </c>
       <c r="J12">
-        <v>1.039430574886126</v>
+        <v>0.6325247635444384</v>
       </c>
       <c r="K12">
-        <v>0.8758163043116411</v>
+        <v>0.5647816200793514</v>
       </c>
       <c r="L12">
-        <v>0.0814738977631464</v>
+        <v>0.2176320155807332</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2119633632320195</v>
       </c>
       <c r="N12">
-        <v>0.4954845328879998</v>
+        <v>0.085283812190319</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.5236353097400439</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.529321990065114</v>
+        <v>5.534943817727765</v>
       </c>
       <c r="C13">
-        <v>1.124044905390292</v>
+        <v>1.217691800909279</v>
       </c>
       <c r="D13">
-        <v>0.2093485198744958</v>
+        <v>0.2027082000948468</v>
       </c>
       <c r="E13">
-        <v>0.03704214790627747</v>
+        <v>0.03593164830372508</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.472507846062911</v>
+        <v>1.164294315053922</v>
       </c>
       <c r="H13">
-        <v>0.1149381120118562</v>
+        <v>0.1146149466710966</v>
       </c>
       <c r="I13">
-        <v>0.002360188754865433</v>
+        <v>0.002258280025568382</v>
       </c>
       <c r="J13">
-        <v>0.8975762959904046</v>
+        <v>0.5614152345814318</v>
       </c>
       <c r="K13">
-        <v>0.7253646568210925</v>
+        <v>0.4799469503485341</v>
       </c>
       <c r="L13">
-        <v>0.1039152666103291</v>
+        <v>0.1891082957254113</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1766289522382714</v>
       </c>
       <c r="N13">
-        <v>0.4054205056022369</v>
+        <v>0.1082573217873346</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.4281022239540704</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.431587802722049</v>
+        <v>5.43785780822958</v>
       </c>
       <c r="C14">
-        <v>1.121210595371167</v>
+        <v>1.205159934373285</v>
       </c>
       <c r="D14">
-        <v>0.1882754729800524</v>
+        <v>0.1827764309941387</v>
       </c>
       <c r="E14">
-        <v>0.03686967298468069</v>
+        <v>0.03641737904637399</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.27603945936994</v>
+        <v>1.015574635586887</v>
       </c>
       <c r="H14">
-        <v>0.1647932124937626</v>
+        <v>0.1643313175716656</v>
       </c>
       <c r="I14">
-        <v>0.002837728517729232</v>
+        <v>0.002570233228071039</v>
       </c>
       <c r="J14">
-        <v>0.799719090235584</v>
+        <v>0.5309242210914533</v>
       </c>
       <c r="K14">
-        <v>0.6279854448440929</v>
+        <v>0.430553153358975</v>
       </c>
       <c r="L14">
-        <v>0.1210544499596082</v>
+        <v>0.1731520375969211</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1550137728484096</v>
       </c>
       <c r="N14">
-        <v>0.3427974809136458</v>
+        <v>0.1257433164692046</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3623285383596055</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.372519947507726</v>
+        <v>5.37902829142439</v>
       </c>
       <c r="C15">
-        <v>1.114071048514973</v>
+        <v>1.196259326970733</v>
       </c>
       <c r="D15">
-        <v>0.1825972564552814</v>
+        <v>0.1773814520032175</v>
       </c>
       <c r="E15">
-        <v>0.03695516020797918</v>
+        <v>0.03668548565694163</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.223023132229343</v>
+        <v>0.9732165955879992</v>
       </c>
       <c r="H15">
-        <v>0.1775600699689335</v>
+        <v>0.1770280596881832</v>
       </c>
       <c r="I15">
-        <v>0.003190169627278472</v>
+        <v>0.002856671943882283</v>
       </c>
       <c r="J15">
-        <v>0.773897835621483</v>
+        <v>0.5299382613660839</v>
       </c>
       <c r="K15">
-        <v>0.6039214802222403</v>
+        <v>0.4204102743896954</v>
       </c>
       <c r="L15">
-        <v>0.1247952298442812</v>
+        <v>0.1701131793940895</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1501515897578436</v>
       </c>
       <c r="N15">
-        <v>0.3265068735295813</v>
+        <v>0.1296193551077991</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3454400570158072</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.037195189374927</v>
+        <v>5.044335065584903</v>
       </c>
       <c r="C16">
-        <v>1.042539242135149</v>
+        <v>1.129835946842093</v>
       </c>
       <c r="D16">
-        <v>0.1772045576818329</v>
+        <v>0.1721213492194522</v>
       </c>
       <c r="E16">
-        <v>0.03570643348546865</v>
+        <v>0.03573111921651773</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.186304952781754</v>
+        <v>0.9294763783596949</v>
       </c>
       <c r="H16">
-        <v>0.1662677864872109</v>
+        <v>0.1653605946569314</v>
       </c>
       <c r="I16">
-        <v>0.004565024179300714</v>
+        <v>0.003779175578013216</v>
       </c>
       <c r="J16">
-        <v>0.7618750737837274</v>
+        <v>0.5928324749777545</v>
       </c>
       <c r="K16">
-        <v>0.6035072330157334</v>
+        <v>0.4403586332492004</v>
       </c>
       <c r="L16">
-        <v>0.1155368357028195</v>
+        <v>0.1791502308026516</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1546033814143897</v>
       </c>
       <c r="N16">
-        <v>0.3113582963588044</v>
+        <v>0.1209335814246515</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.3315878872533773</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.832650296562747</v>
+        <v>4.839830394762487</v>
       </c>
       <c r="C17">
-        <v>0.9895307986205921</v>
+        <v>1.083926790494843</v>
       </c>
       <c r="D17">
-        <v>0.1839923333273816</v>
+        <v>0.1784816477490381</v>
       </c>
       <c r="E17">
-        <v>0.0345191254369337</v>
+        <v>0.0343799388519237</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.259446229489299</v>
+        <v>0.9751443379855544</v>
       </c>
       <c r="H17">
-        <v>0.1293925699021941</v>
+        <v>0.1282638201639514</v>
       </c>
       <c r="I17">
-        <v>0.005445116679350548</v>
+        <v>0.004394044782522144</v>
       </c>
       <c r="J17">
-        <v>0.8032448674988899</v>
+        <v>0.653991887925585</v>
       </c>
       <c r="K17">
-        <v>0.6527439344670185</v>
+        <v>0.4809804979632943</v>
       </c>
       <c r="L17">
-        <v>0.09896819281994595</v>
+        <v>0.1949373430589212</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1685295624516243</v>
       </c>
       <c r="N17">
-        <v>0.3319291724867099</v>
+        <v>0.1044493748483148</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3546515259286878</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.716238827444386</v>
+        <v>4.7232894232435</v>
       </c>
       <c r="C18">
-        <v>0.9444334043560332</v>
+        <v>1.050860163825405</v>
       </c>
       <c r="D18">
-        <v>0.2029322240863678</v>
+        <v>0.196256856886734</v>
       </c>
       <c r="E18">
-        <v>0.03492424814217188</v>
+        <v>0.03410938025736737</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.451294446934838</v>
+        <v>1.107985137699814</v>
       </c>
       <c r="H18">
-        <v>0.07677651149153775</v>
+        <v>0.07560907367172121</v>
       </c>
       <c r="I18">
-        <v>0.005432565973380044</v>
+        <v>0.00427578725931177</v>
       </c>
       <c r="J18">
-        <v>0.9030617544625272</v>
+        <v>0.739303671322773</v>
       </c>
       <c r="K18">
-        <v>0.7621100227218562</v>
+        <v>0.5547846401985623</v>
       </c>
       <c r="L18">
-        <v>0.07689228734620457</v>
+        <v>0.2224701645514386</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1959698235024341</v>
       </c>
       <c r="N18">
-        <v>0.3885945658237802</v>
+        <v>0.08204998987934431</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.4159066712674075</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.678565663931863</v>
+        <v>4.685421834417014</v>
       </c>
       <c r="C19">
-        <v>0.9143591668475892</v>
+        <v>1.036178033631643</v>
       </c>
       <c r="D19">
-        <v>0.2313083085732615</v>
+        <v>0.2228356198428401</v>
       </c>
       <c r="E19">
-        <v>0.039021535164947</v>
+        <v>0.03701650518337463</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.727353510255426</v>
+        <v>1.2992387289965</v>
       </c>
       <c r="H19">
-        <v>0.03094693892384726</v>
+        <v>0.0299218206265266</v>
       </c>
       <c r="I19">
-        <v>0.005209343121178378</v>
+        <v>0.00421093333275202</v>
       </c>
       <c r="J19">
-        <v>1.043510023612157</v>
+        <v>0.8427149843505788</v>
       </c>
       <c r="K19">
-        <v>0.9169256514221544</v>
+        <v>0.6532877058869886</v>
       </c>
       <c r="L19">
-        <v>0.05625189155941612</v>
+        <v>0.2586381276353755</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2335725194111831</v>
       </c>
       <c r="N19">
-        <v>0.4767767279814592</v>
+        <v>0.06057627514319108</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.5105292622112216</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.863778208239353</v>
+        <v>4.869914491192048</v>
       </c>
       <c r="C20">
-        <v>0.9183414782587818</v>
+        <v>1.065992147520831</v>
       </c>
       <c r="D20">
-        <v>0.2859873384163052</v>
+        <v>0.2738713267979875</v>
       </c>
       <c r="E20">
-        <v>0.05300224185256752</v>
+        <v>0.0484196155992116</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.256174933813895</v>
+        <v>1.667632199929102</v>
       </c>
       <c r="H20">
-        <v>0.002426255807427502</v>
+        <v>0.001925336637430775</v>
       </c>
       <c r="I20">
-        <v>0.003615664024622767</v>
+        <v>0.003215736067616604</v>
       </c>
       <c r="J20">
-        <v>1.306095044004593</v>
+        <v>0.9954802856798324</v>
       </c>
       <c r="K20">
-        <v>1.207888093952135</v>
+        <v>0.8235833015231364</v>
       </c>
       <c r="L20">
-        <v>0.03882598401896331</v>
+        <v>0.3177999645485272</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3028349217499553</v>
       </c>
       <c r="N20">
-        <v>0.6495291267904975</v>
+        <v>0.04107227863137197</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.6946106690888172</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.474602161545874</v>
+        <v>5.478039594364247</v>
       </c>
       <c r="C21">
-        <v>1.035536382425562</v>
+        <v>1.181487140934109</v>
       </c>
       <c r="D21">
-        <v>0.3152497582513831</v>
+        <v>0.3019520955280655</v>
       </c>
       <c r="E21">
-        <v>0.05885802196620915</v>
+        <v>0.0533079479144245</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.507897130001425</v>
+        <v>1.896885970956788</v>
       </c>
       <c r="H21">
-        <v>0.0004235310863451858</v>
+        <v>0.0003688787335378585</v>
       </c>
       <c r="I21">
-        <v>0.001974352168126359</v>
+        <v>0.002204153271484266</v>
       </c>
       <c r="J21">
-        <v>1.420402999226525</v>
+        <v>0.8573607135829775</v>
       </c>
       <c r="K21">
-        <v>1.310796557611809</v>
+        <v>0.8232358533229416</v>
       </c>
       <c r="L21">
-        <v>0.04413255421045292</v>
+        <v>0.308176745616727</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3150361955977914</v>
       </c>
       <c r="N21">
-        <v>0.7390214880903017</v>
+        <v>0.04527445972298949</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.7832138383340919</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.875755987121408</v>
+        <v>5.87643349501144</v>
       </c>
       <c r="C22">
-        <v>1.111694865872721</v>
+        <v>1.253564165458101</v>
       </c>
       <c r="D22">
-        <v>0.3324063825776875</v>
+        <v>0.3185822651925037</v>
       </c>
       <c r="E22">
-        <v>0.06202116199891883</v>
+        <v>0.05597448008916928</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.662476445409624</v>
+        <v>2.048385696726001</v>
       </c>
       <c r="H22">
-        <v>1.228486306370513E-05</v>
+        <v>2.298866649219633E-05</v>
       </c>
       <c r="I22">
-        <v>0.001410259814125681</v>
+        <v>0.00170762953868131</v>
       </c>
       <c r="J22">
-        <v>1.490157838191976</v>
+        <v>0.7614936167334463</v>
       </c>
       <c r="K22">
-        <v>1.372488867031365</v>
+        <v>0.8169412647826988</v>
       </c>
       <c r="L22">
-        <v>0.0483942413003895</v>
+        <v>0.2998553888073943</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.321003195903856</v>
       </c>
       <c r="N22">
-        <v>0.7894361052955219</v>
+        <v>0.04882956193451093</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.8319994451645698</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.661575207089413</v>
+        <v>5.663917236296584</v>
       </c>
       <c r="C23">
-        <v>1.068113274043242</v>
+        <v>1.215266372477458</v>
       </c>
       <c r="D23">
-        <v>0.3234834793573782</v>
+        <v>0.309733543308667</v>
       </c>
       <c r="E23">
-        <v>0.06042965077281792</v>
+        <v>0.05458574944948502</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.591168640841573</v>
+        <v>1.967418698805062</v>
       </c>
       <c r="H23">
-        <v>0.0001557893673678201</v>
+        <v>0.0001504017012328163</v>
       </c>
       <c r="I23">
-        <v>0.001321400055951827</v>
+        <v>0.001544737665499341</v>
       </c>
       <c r="J23">
-        <v>1.458564877272522</v>
+        <v>0.8364284384530833</v>
       </c>
       <c r="K23">
-        <v>1.346778459111405</v>
+        <v>0.8302117591202318</v>
       </c>
       <c r="L23">
-        <v>0.04607528098920355</v>
+        <v>0.3076881930822566</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3218161655358571</v>
       </c>
       <c r="N23">
-        <v>0.7617847169936454</v>
+        <v>0.04696660373073414</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.8060446030659136</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.85438150496384</v>
+        <v>4.860472961883431</v>
       </c>
       <c r="C24">
-        <v>0.9098067093423481</v>
+        <v>1.059059718982894</v>
       </c>
       <c r="D24">
-        <v>0.2896519635249888</v>
+        <v>0.2772469043908501</v>
       </c>
       <c r="E24">
-        <v>0.05431725140028298</v>
+        <v>0.04951982865545546</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.307146304637314</v>
+        <v>1.703196938912072</v>
       </c>
       <c r="H24">
-        <v>0.002222098503886327</v>
+        <v>0.001737902201984998</v>
       </c>
       <c r="I24">
-        <v>0.003063678699115613</v>
+        <v>0.002578737380385832</v>
       </c>
       <c r="J24">
-        <v>1.331924090338219</v>
+        <v>1.015544100858335</v>
       </c>
       <c r="K24">
-        <v>1.239389273404242</v>
+        <v>0.8444582121803066</v>
       </c>
       <c r="L24">
-        <v>0.03772187350705991</v>
+        <v>0.3254775983962048</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3107846720513976</v>
       </c>
       <c r="N24">
-        <v>0.6590927767990564</v>
+        <v>0.0397828742884343</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.7051014554093342</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.990576310092024</v>
+        <v>3.996437697274189</v>
       </c>
       <c r="C25">
-        <v>0.7426585071482918</v>
+        <v>0.8617726449768952</v>
       </c>
       <c r="D25">
-        <v>0.2538283881425798</v>
+        <v>0.2445265320805987</v>
       </c>
       <c r="E25">
-        <v>0.04784285696456969</v>
+        <v>0.04449227461453731</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.009378199094243</v>
+        <v>1.513895483095979</v>
       </c>
       <c r="H25">
-        <v>0.007339262264535684</v>
+        <v>0.005759949436258127</v>
       </c>
       <c r="I25">
-        <v>0.007973551379683919</v>
+        <v>0.005957829702005313</v>
       </c>
       <c r="J25">
-        <v>1.19979314891151</v>
+        <v>0.9516643866670336</v>
       </c>
       <c r="K25">
-        <v>1.127146134866813</v>
+        <v>0.8027969886645749</v>
       </c>
       <c r="L25">
-        <v>0.02938609846436435</v>
+        <v>0.3238779663734164</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2791014211322249</v>
       </c>
       <c r="N25">
-        <v>0.5498169638809145</v>
+        <v>0.03158250256264239</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.5895225755877647</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
